--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\data\Beijing_WJW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="225" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BC97858A-71AF-4EB5-9875-4612F402D98E}"/>
+  <xr:revisionPtr revIDLastSave="539" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AC962CB8-FA93-4327-AE9B-B08B1640F5F2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="Places" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="101">
   <si>
     <t>Age</t>
   </si>
@@ -139,16 +140,221 @@
   </si>
   <si>
     <t>No_Contact</t>
+  </si>
+  <si>
+    <t>Total_Death</t>
+  </si>
+  <si>
+    <t>Total_Recovery</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Report_Time</t>
+  </si>
+  <si>
+    <t>Disctrict</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>东城</t>
+  </si>
+  <si>
+    <t>体育馆路街道驹章胡同</t>
+  </si>
+  <si>
+    <t>西城</t>
+  </si>
+  <si>
+    <t>月坛街道复兴门外大街甲20号</t>
+  </si>
+  <si>
+    <t>展览路街道南营房社区</t>
+  </si>
+  <si>
+    <t>朝阳</t>
+  </si>
+  <si>
+    <t>来广营乡筑华年</t>
+  </si>
+  <si>
+    <t>东坝乡恒大江湾</t>
+  </si>
+  <si>
+    <t>慈云寺北里</t>
+  </si>
+  <si>
+    <t>北苑路86号嘉铭园</t>
+  </si>
+  <si>
+    <t>高碑店乡陶家湾</t>
+  </si>
+  <si>
+    <t>海淀</t>
+  </si>
+  <si>
+    <t>北太平庄街道新街口外大街15号院</t>
+  </si>
+  <si>
+    <t>紫竹院街道民族大学西路66号鑫德嘉园</t>
+  </si>
+  <si>
+    <t>石景山</t>
+  </si>
+  <si>
+    <t>玉泉北里2区</t>
+  </si>
+  <si>
+    <t>八宝山街道远洋山水</t>
+  </si>
+  <si>
+    <t>五里坨街道西街天翠阳光新城</t>
+  </si>
+  <si>
+    <t>大兴</t>
+  </si>
+  <si>
+    <t>黄村镇格林云墅</t>
+  </si>
+  <si>
+    <t>瀛海镇金茂悦北区5号院</t>
+  </si>
+  <si>
+    <t>观音寺街道双河南里</t>
+  </si>
+  <si>
+    <t>怀柔</t>
+  </si>
+  <si>
+    <t>庙城镇郑重庄村</t>
+  </si>
+  <si>
+    <t>新街口街道富国里</t>
+  </si>
+  <si>
+    <t>奥运村街道林萃路10号院</t>
+  </si>
+  <si>
+    <t>来广营乡明天第一城</t>
+  </si>
+  <si>
+    <t>亚运村街道安慧北里</t>
+  </si>
+  <si>
+    <t>丰台</t>
+  </si>
+  <si>
+    <t>丰台街道电报局街小区</t>
+  </si>
+  <si>
+    <t>卢沟桥街道西府颐园</t>
+  </si>
+  <si>
+    <t>昌平</t>
+  </si>
+  <si>
+    <t>龙泽园街道龙泽苑东区</t>
+  </si>
+  <si>
+    <t>天通苑北街道天通苑北一区</t>
+  </si>
+  <si>
+    <t>通州</t>
+  </si>
+  <si>
+    <t>于家务回族乡崔各庄村</t>
+  </si>
+  <si>
+    <t>房山</t>
+  </si>
+  <si>
+    <t>西潞街道西潞东里小区</t>
+  </si>
+  <si>
+    <t>林校路街道泰禾中央广场</t>
+  </si>
+  <si>
+    <t>兴丰街道瑞康家园小区</t>
+  </si>
+  <si>
+    <t>顺义</t>
+  </si>
+  <si>
+    <t>空港街道龙湖滟澜山</t>
+  </si>
+  <si>
+    <t>北新桥街道后永康2巷</t>
+  </si>
+  <si>
+    <t>高碑店北花园社区超级蜂巢　</t>
+  </si>
+  <si>
+    <t>田村路街道玉海园二里小区</t>
+  </si>
+  <si>
+    <t>丰台街道建国街一里</t>
+  </si>
+  <si>
+    <t>张坊镇西白岱村</t>
+  </si>
+  <si>
+    <t>密云</t>
+  </si>
+  <si>
+    <t>十里堡镇河槽村</t>
+  </si>
+  <si>
+    <t>将台乡芳园里小区　　</t>
+  </si>
+  <si>
+    <t>东铁营街道定安东里　</t>
+  </si>
+  <si>
+    <t>太平桥街道华源四里</t>
+  </si>
+  <si>
+    <t>新村街道富丰园</t>
+  </si>
+  <si>
+    <t>北新桥街道东直门北小街8号</t>
+  </si>
+  <si>
+    <t>南磨房乡世纪东方嘉园</t>
+  </si>
+  <si>
+    <t>北太平庄街道北京师范大学小区</t>
+  </si>
+  <si>
+    <t>东高地街道万源南里小区</t>
+  </si>
+  <si>
+    <t>胜利街道义宾南区</t>
+  </si>
+  <si>
+    <t>西红门镇瑞海家园二区</t>
+  </si>
+  <si>
+    <t>中关村街道中科院东南小区</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,10 +380,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5076,9 +5283,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:W16"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5086,7 +5293,7 @@
     <col min="2" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5121,22 +5328,22 @@
         <v>26</v>
       </c>
       <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
         <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
       </c>
       <c r="N1" t="s">
         <v>29</v>
       </c>
       <c r="O1" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" t="s">
         <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
       </c>
       <c r="R1" t="s">
         <v>33</v>
@@ -5156,8 +5363,14 @@
       <c r="W1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43850</v>
       </c>
@@ -5213,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f>SUM(B2:R2)</f>
+        <f t="shared" ref="S2:S21" si="0">SUM(B2:R2)</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -5228,8 +5441,14 @@
       <c r="W2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43851</v>
       </c>
@@ -5285,11 +5504,11 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <f>SUM(B3:R3)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T12" si="0">S3-S2</f>
+        <f t="shared" ref="T3:T12" si="1">S3-S2</f>
         <v>5</v>
       </c>
       <c r="U3">
@@ -5301,8 +5520,14 @@
       <c r="W3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43852</v>
       </c>
@@ -5358,11 +5583,11 @@
         <v>2</v>
       </c>
       <c r="S4">
-        <f>SUM(B4:R4)</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="T4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="U4">
@@ -5374,8 +5599,14 @@
       <c r="W4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43853</v>
       </c>
@@ -5431,11 +5662,11 @@
         <v>7</v>
       </c>
       <c r="S5">
-        <f t="shared" ref="S5:S15" si="1">SUM(B5:R5)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="T5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="U5">
@@ -5447,8 +5678,14 @@
       <c r="W5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43854</v>
       </c>
@@ -5483,11 +5720,11 @@
         <v>1</v>
       </c>
       <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
         <v>2</v>
       </c>
-      <c r="M6">
-        <v>3</v>
-      </c>
       <c r="N6">
         <v>0</v>
       </c>
@@ -5504,11 +5741,11 @@
         <v>10</v>
       </c>
       <c r="S6">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="U6">
@@ -5520,8 +5757,14 @@
       <c r="W6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43855</v>
       </c>
@@ -5556,10 +5799,10 @@
         <v>1</v>
       </c>
       <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
         <v>2</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -5577,11 +5820,11 @@
         <v>11</v>
       </c>
       <c r="S7">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="1"/>
-        <v>51</v>
-      </c>
-      <c r="T7">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="U7">
@@ -5593,8 +5836,14 @@
       <c r="W7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43856</v>
       </c>
@@ -5629,11 +5878,11 @@
         <v>1</v>
       </c>
       <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
         <v>3</v>
       </c>
-      <c r="M8">
-        <v>7</v>
-      </c>
       <c r="N8">
         <v>0</v>
       </c>
@@ -5650,11 +5899,11 @@
         <v>12</v>
       </c>
       <c r="S8">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="1"/>
-        <v>68</v>
-      </c>
-      <c r="T8">
-        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="U8">
@@ -5666,8 +5915,14 @@
       <c r="W8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43857</v>
       </c>
@@ -5702,10 +5957,10 @@
         <v>1</v>
       </c>
       <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
         <v>5</v>
-      </c>
-      <c r="M9">
-        <v>7</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -5723,11 +5978,11 @@
         <v>11</v>
       </c>
       <c r="S9">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="T9">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="U9">
@@ -5739,8 +5994,14 @@
       <c r="W9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43858</v>
       </c>
@@ -5775,10 +6036,10 @@
         <v>2</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -5796,11 +6057,11 @@
         <v>11</v>
       </c>
       <c r="S10">
+        <f t="shared" si="0"/>
+        <v>102</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="1"/>
-        <v>102</v>
-      </c>
-      <c r="T10">
-        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="U10">
@@ -5812,8 +6073,14 @@
       <c r="W10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X10">
+        <v>1</v>
+      </c>
+      <c r="Y10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43859</v>
       </c>
@@ -5848,10 +6115,10 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -5869,11 +6136,11 @@
         <v>11</v>
       </c>
       <c r="S11">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="1"/>
-        <v>114</v>
-      </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="U11">
@@ -5885,8 +6152,14 @@
       <c r="W11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X11">
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43860</v>
       </c>
@@ -5921,10 +6194,10 @@
         <v>2</v>
       </c>
       <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12">
         <v>16</v>
-      </c>
-      <c r="M12">
-        <v>12</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -5942,11 +6215,11 @@
         <v>11</v>
       </c>
       <c r="S12">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="1"/>
-        <v>132</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="U12">
@@ -5958,8 +6231,14 @@
       <c r="W12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43861</v>
       </c>
@@ -5994,10 +6273,10 @@
         <v>2</v>
       </c>
       <c r="L13">
+        <v>12</v>
+      </c>
+      <c r="M13">
         <v>19</v>
-      </c>
-      <c r="M13">
-        <v>12</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -6015,11 +6294,11 @@
         <v>11</v>
       </c>
       <c r="S13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>156</v>
       </c>
       <c r="T13">
-        <f>S13-S12</f>
+        <f t="shared" ref="T13:T21" si="2">S13-S12</f>
         <v>24</v>
       </c>
       <c r="U13">
@@ -6031,8 +6310,14 @@
       <c r="W13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X13">
+        <v>1</v>
+      </c>
+      <c r="Y13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43862</v>
       </c>
@@ -6067,10 +6352,10 @@
         <v>6</v>
       </c>
       <c r="L14">
+        <v>12</v>
+      </c>
+      <c r="M14">
         <v>21</v>
-      </c>
-      <c r="M14">
-        <v>12</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -6088,11 +6373,11 @@
         <v>11</v>
       </c>
       <c r="S14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>183</v>
       </c>
       <c r="T14">
-        <f>S14-S13</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="U14">
@@ -6104,8 +6389,14 @@
       <c r="W14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X14">
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43863</v>
       </c>
@@ -6140,10 +6431,10 @@
         <v>5</v>
       </c>
       <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
         <v>28</v>
-      </c>
-      <c r="M15">
-        <v>13</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -6152,20 +6443,20 @@
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>19</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>212</v>
       </c>
       <c r="T15">
-        <f>S15-S14</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="U15">
@@ -6177,11 +6468,1192 @@
       <c r="W15">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>28</v>
+      </c>
+      <c r="D16">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <v>18</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>13</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16">
+        <v>29</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>20</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="U16">
+        <v>6</v>
+      </c>
+      <c r="V16">
+        <v>10</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
+        <v>29</v>
+      </c>
+      <c r="D17">
+        <v>43</v>
+      </c>
+      <c r="E17">
+        <v>45</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>11</v>
+      </c>
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <v>15</v>
+      </c>
+      <c r="M17">
+        <v>29</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>21</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="0"/>
+        <v>253</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="U17">
+        <v>14</v>
+      </c>
+      <c r="V17">
+        <v>10</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>1</v>
+      </c>
+      <c r="Y17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>48</v>
+      </c>
+      <c r="E18">
+        <v>47</v>
+      </c>
+      <c r="F18">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>11</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>11</v>
+      </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <v>15</v>
+      </c>
+      <c r="M18">
+        <v>32</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>21</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="0"/>
+        <v>274</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+      <c r="U18">
+        <v>8</v>
+      </c>
+      <c r="V18">
+        <v>10</v>
+      </c>
+      <c r="W18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>51</v>
+      </c>
+      <c r="E19">
+        <v>47</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19">
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19">
+        <v>34</v>
+      </c>
+      <c r="N19">
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>24</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="U19">
+        <v>10</v>
+      </c>
+      <c r="V19">
+        <v>14</v>
+      </c>
+      <c r="W19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43868</v>
+      </c>
+      <c r="B20">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <v>49</v>
+      </c>
+      <c r="F20">
+        <v>26</v>
+      </c>
+      <c r="G20">
+        <v>13</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>14</v>
+      </c>
+      <c r="J20">
+        <v>15</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>17</v>
+      </c>
+      <c r="M20">
+        <v>34</v>
+      </c>
+      <c r="N20">
+        <v>7</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>1</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>25</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>10</v>
+      </c>
+      <c r="W20" s="3">
+        <v>7</v>
+      </c>
+      <c r="X20">
+        <v>2</v>
+      </c>
+      <c r="Y20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B21">
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <v>38</v>
+      </c>
+      <c r="D21">
+        <v>55</v>
+      </c>
+      <c r="E21">
+        <v>52</v>
+      </c>
+      <c r="F21">
+        <v>27</v>
+      </c>
+      <c r="G21">
+        <v>13</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21">
+        <v>14</v>
+      </c>
+      <c r="J21">
+        <v>16</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>17</v>
+      </c>
+      <c r="M21">
+        <v>35</v>
+      </c>
+      <c r="N21">
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>1</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>24</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>8</v>
+      </c>
+      <c r="W21" s="3">
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <v>2</v>
+      </c>
+      <c r="Y21">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
+  <dimension ref="A1:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>43866</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>43867</v>
+      </c>
+      <c r="C32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C35" t="s">
+        <v>46</v>
+      </c>
+      <c r="D35" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>43868</v>
+      </c>
+      <c r="C42" t="s">
+        <v>88</v>
+      </c>
+      <c r="D42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>43869</v>
+      </c>
+      <c r="C43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>43869</v>
+      </c>
+      <c r="C44" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>43869</v>
+      </c>
+      <c r="C45" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>43869</v>
+      </c>
+      <c r="C46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>43869</v>
+      </c>
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+      <c r="D47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>43869</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>43869</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="539" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AC962CB8-FA93-4327-AE9B-B08B1640F5F2}"/>
+  <xr:revisionPtr revIDLastSave="573" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F6D34429-2526-43C7-BB79-964063627FD1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="104">
   <si>
     <t>Age</t>
   </si>
@@ -338,6 +338,15 @@
   </si>
   <si>
     <t>中关村街道中科院东南小区</t>
+  </si>
+  <si>
+    <t>花乡地区幸福家园小区东区</t>
+  </si>
+  <si>
+    <t>花乡地区刘孟家园小区</t>
+  </si>
+  <si>
+    <t>中关村街道知春路82号院小区</t>
   </si>
 </sst>
 </file>
@@ -5283,9 +5292,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:Y21"/>
+  <dimension ref="A1:Y22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5426,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S21" si="0">SUM(B2:R2)</f>
+        <f t="shared" ref="S2:S22" si="0">SUM(B2:R2)</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -6298,7 +6309,7 @@
         <v>156</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:T21" si="2">S13-S12</f>
+        <f t="shared" ref="T13:T22" si="2">S13-S12</f>
         <v>24</v>
       </c>
       <c r="U13">
@@ -6947,6 +6958,85 @@
       </c>
       <c r="Y21">
         <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B22">
+        <v>9</v>
+      </c>
+      <c r="C22">
+        <v>39</v>
+      </c>
+      <c r="D22">
+        <v>56</v>
+      </c>
+      <c r="E22">
+        <v>54</v>
+      </c>
+      <c r="F22">
+        <v>30</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+      <c r="I22">
+        <v>14</v>
+      </c>
+      <c r="J22">
+        <v>16</v>
+      </c>
+      <c r="K22">
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <v>18</v>
+      </c>
+      <c r="M22">
+        <v>36</v>
+      </c>
+      <c r="N22">
+        <v>7</v>
+      </c>
+      <c r="O22">
+        <v>6</v>
+      </c>
+      <c r="P22">
+        <v>1</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>25</v>
+      </c>
+      <c r="S22">
+        <f t="shared" si="0"/>
+        <v>337</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="V22">
+        <v>7</v>
+      </c>
+      <c r="W22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6957,9 +7047,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7652,6 +7744,48 @@
         <v>99</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>43870</v>
+      </c>
+      <c r="C52" t="s">
+        <v>52</v>
+      </c>
+      <c r="D52" t="s">
+        <v>103</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="573" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F6D34429-2526-43C7-BB79-964063627FD1}"/>
+  <xr:revisionPtr revIDLastSave="610" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1955127-52AB-469A-97CC-D41FB5F4C96A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="108">
   <si>
     <t>Age</t>
   </si>
@@ -347,6 +347,18 @@
   </si>
   <si>
     <t>中关村街道知春路82号院小区</t>
+  </si>
+  <si>
+    <t>南邵镇长滩壹号</t>
+  </si>
+  <si>
+    <t>月坛街道三里河三区</t>
+  </si>
+  <si>
+    <t>中关村街道软件小区</t>
+  </si>
+  <si>
+    <t>马驹桥镇北门口村</t>
   </si>
 </sst>
 </file>
@@ -5292,10 +5304,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y23"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="Z25" sqref="Z25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5437,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S22" si="0">SUM(B2:R2)</f>
+        <f t="shared" ref="S2:S23" si="0">SUM(B2:R2)</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -6309,7 +6321,7 @@
         <v>156</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:T22" si="2">S13-S12</f>
+        <f t="shared" ref="T13:T23" si="2">S13-S12</f>
         <v>24</v>
       </c>
       <c r="U13">
@@ -7037,6 +7049,85 @@
       </c>
       <c r="Y22">
         <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B23">
+        <v>9</v>
+      </c>
+      <c r="C23">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>56</v>
+      </c>
+      <c r="E23">
+        <v>57</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>14</v>
+      </c>
+      <c r="J23">
+        <v>17</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>19</v>
+      </c>
+      <c r="M23">
+        <v>36</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23">
+        <v>6</v>
+      </c>
+      <c r="P23">
+        <v>1</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>25</v>
+      </c>
+      <c r="S23">
+        <f t="shared" si="0"/>
+        <v>342</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+      <c r="V23">
+        <v>3</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="X23">
+        <v>3</v>
+      </c>
+      <c r="Y23">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -7047,10 +7138,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7786,6 +7877,62 @@
         <v>103</v>
       </c>
     </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>43871</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>43871</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>43871</v>
+      </c>
+      <c r="C55" t="s">
+        <v>52</v>
+      </c>
+      <c r="D55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>43871</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="610" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A1955127-52AB-469A-97CC-D41FB5F4C96A}"/>
+  <xr:revisionPtr revIDLastSave="700" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8C4217E-C36D-4A5E-B53C-A133D72F3B06}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="117">
   <si>
     <t>Age</t>
   </si>
@@ -359,6 +359,33 @@
   </si>
   <si>
     <t>马驹桥镇北门口村</t>
+  </si>
+  <si>
+    <t>东直门街道新中街18号</t>
+  </si>
+  <si>
+    <t>广安门外街道红居南街1号院</t>
+  </si>
+  <si>
+    <t>黄村镇格林云墅小区</t>
+  </si>
+  <si>
+    <t>月坛街道莲花池东路甲5号院</t>
+  </si>
+  <si>
+    <t>右安门街道家和园小区</t>
+  </si>
+  <si>
+    <t>南苑街道南庭新苑北区</t>
+  </si>
+  <si>
+    <t>北七家镇北亚花园社区</t>
+  </si>
+  <si>
+    <t>天通苑南街道天通东苑二区</t>
+  </si>
+  <si>
+    <t>旧宫镇润枫锦尚小区</t>
   </si>
 </sst>
 </file>
@@ -401,11 +428,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5304,10 +5332,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:Y23"/>
+  <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5449,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S23" si="0">SUM(B2:R2)</f>
+        <f t="shared" ref="S2:S25" si="0">SUM(B2:R2)</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -6321,7 +6349,7 @@
         <v>156</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:T23" si="2">S13-S12</f>
+        <f t="shared" ref="T13:T25" si="2">S13-S12</f>
         <v>24</v>
       </c>
       <c r="U13">
@@ -7128,6 +7156,164 @@
       </c>
       <c r="Y23">
         <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B24">
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>56</v>
+      </c>
+      <c r="E24">
+        <v>56</v>
+      </c>
+      <c r="F24">
+        <v>32</v>
+      </c>
+      <c r="G24">
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>14</v>
+      </c>
+      <c r="J24">
+        <v>17</v>
+      </c>
+      <c r="K24">
+        <v>10</v>
+      </c>
+      <c r="L24">
+        <v>19</v>
+      </c>
+      <c r="M24">
+        <v>37</v>
+      </c>
+      <c r="N24">
+        <v>7</v>
+      </c>
+      <c r="O24">
+        <v>7</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>25</v>
+      </c>
+      <c r="S24">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>10</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>3</v>
+      </c>
+      <c r="Y24">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43873</v>
+      </c>
+      <c r="B25">
+        <v>12</v>
+      </c>
+      <c r="C25">
+        <v>46</v>
+      </c>
+      <c r="D25">
+        <v>56</v>
+      </c>
+      <c r="E25">
+        <v>56</v>
+      </c>
+      <c r="F25">
+        <v>36</v>
+      </c>
+      <c r="G25">
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>14</v>
+      </c>
+      <c r="J25">
+        <v>17</v>
+      </c>
+      <c r="K25">
+        <v>10</v>
+      </c>
+      <c r="L25">
+        <v>24</v>
+      </c>
+      <c r="M25">
+        <v>38</v>
+      </c>
+      <c r="N25">
+        <v>7</v>
+      </c>
+      <c r="O25">
+        <v>7</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>26</v>
+      </c>
+      <c r="S25">
+        <f t="shared" si="0"/>
+        <v>366</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>14</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7138,10 +7324,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="H61" sqref="H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7933,6 +8119,202 @@
         <v>107</v>
       </c>
     </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C57" t="s">
+        <v>41</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="D59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C60" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>43872</v>
+      </c>
+      <c r="C62" t="s">
+        <v>88</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>43873</v>
+      </c>
+      <c r="C63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>43873</v>
+      </c>
+      <c r="C64" t="s">
+        <v>43</v>
+      </c>
+      <c r="D64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>43873</v>
+      </c>
+      <c r="C65" t="s">
+        <v>43</v>
+      </c>
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43873</v>
+      </c>
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>43873</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+      <c r="D67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>43873</v>
+      </c>
+      <c r="C68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>43873</v>
+      </c>
+      <c r="C69" t="s">
+        <v>72</v>
+      </c>
+      <c r="D69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>43873</v>
+      </c>
+      <c r="C70" t="s">
+        <v>59</v>
+      </c>
+      <c r="D70" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="700" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E8C4217E-C36D-4A5E-B53C-A133D72F3B06}"/>
+  <xr:revisionPtr revIDLastSave="741" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CB700FDC-120C-4D48-99AA-FF1F1B2C8831}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="120">
   <si>
     <t>Age</t>
   </si>
@@ -386,6 +386,15 @@
   </si>
   <si>
     <t>旧宫镇润枫锦尚小区</t>
+  </si>
+  <si>
+    <t>垡头街道翠城熙园小区</t>
+  </si>
+  <si>
+    <t>紫竹院街道鑫德嘉园</t>
+  </si>
+  <si>
+    <t>老山街道玉泉北里2区</t>
   </si>
 </sst>
 </file>
@@ -750,7 +759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C4E99C-2079-4C3E-9CA1-85716F2A1B38}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H141" sqref="H141:I157"/>
     </sheetView>
   </sheetViews>
@@ -5332,10 +5341,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:Y25"/>
+  <dimension ref="A1:Y26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5477,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S25" si="0">SUM(B2:R2)</f>
+        <f t="shared" ref="S2:S26" si="0">SUM(B2:R2)</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -6349,7 +6358,7 @@
         <v>156</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:T25" si="2">S13-S12</f>
+        <f t="shared" ref="T13:T26" si="2">S13-S12</f>
         <v>24</v>
       </c>
       <c r="U13">
@@ -7314,6 +7323,85 @@
       </c>
       <c r="Y25">
         <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B26">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>46</v>
+      </c>
+      <c r="D26">
+        <v>58</v>
+      </c>
+      <c r="E26">
+        <v>58</v>
+      </c>
+      <c r="F26">
+        <v>36</v>
+      </c>
+      <c r="G26">
+        <v>14</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+      <c r="I26">
+        <v>14</v>
+      </c>
+      <c r="J26">
+        <v>17</v>
+      </c>
+      <c r="K26">
+        <v>10</v>
+      </c>
+      <c r="L26">
+        <v>24</v>
+      </c>
+      <c r="M26">
+        <v>39</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26">
+        <v>7</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>26</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="0"/>
+        <v>372</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>5</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="X26">
+        <v>3</v>
+      </c>
+      <c r="Y26">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -7324,11 +7412,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
-  <dimension ref="A1:D70"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8315,6 +8401,62 @@
         <v>116</v>
       </c>
     </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C71" t="s">
+        <v>46</v>
+      </c>
+      <c r="D71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>43874</v>
+      </c>
+      <c r="C74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="741" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CB700FDC-120C-4D48-99AA-FF1F1B2C8831}"/>
+  <xr:revisionPtr revIDLastSave="779" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{801EDF82-A392-4ED4-9344-9AE10CE5FBB9}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="121">
   <si>
     <t>Age</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>老山街道玉泉北里2区</t>
+  </si>
+  <si>
+    <t>花乡幸福家园小区东区</t>
   </si>
 </sst>
 </file>
@@ -759,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C4E99C-2079-4C3E-9CA1-85716F2A1B38}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H141" sqref="H141:I157"/>
     </sheetView>
   </sheetViews>
@@ -5341,11 +5344,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:Y27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
-    </sheetView>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5486,7 +5487,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S26" si="0">SUM(B2:R2)</f>
+        <f t="shared" ref="S2:S27" si="0">SUM(B2:R2)</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -6358,7 +6359,7 @@
         <v>156</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:T26" si="2">S13-S12</f>
+        <f t="shared" ref="T13:T27" si="2">S13-S12</f>
         <v>24</v>
       </c>
       <c r="U13">
@@ -7381,7 +7382,7 @@
         <v>26</v>
       </c>
       <c r="S26">
-        <f t="shared" si="0"/>
+        <f>SUM(B26:R26)</f>
         <v>372</v>
       </c>
       <c r="T26">
@@ -7402,6 +7403,85 @@
       </c>
       <c r="Y26">
         <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43875</v>
+      </c>
+      <c r="B27">
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>46</v>
+      </c>
+      <c r="D27">
+        <v>58</v>
+      </c>
+      <c r="E27">
+        <v>59</v>
+      </c>
+      <c r="F27">
+        <v>38</v>
+      </c>
+      <c r="G27">
+        <v>14</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>14</v>
+      </c>
+      <c r="J27">
+        <v>17</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>24</v>
+      </c>
+      <c r="M27">
+        <v>39</v>
+      </c>
+      <c r="N27">
+        <v>7</v>
+      </c>
+      <c r="O27">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <v>1</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>26</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="T27">
+        <f>S27-S26</f>
+        <v>3</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>1</v>
+      </c>
+      <c r="X27">
+        <v>4</v>
+      </c>
+      <c r="Y27">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -7412,9 +7492,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8457,6 +8537,48 @@
         <v>116</v>
       </c>
     </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>43875</v>
+      </c>
+      <c r="C75" t="s">
+        <v>52</v>
+      </c>
+      <c r="D75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>43875</v>
+      </c>
+      <c r="C76" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>43875</v>
+      </c>
+      <c r="C77" t="s">
+        <v>69</v>
+      </c>
+      <c r="D77" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="779" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{801EDF82-A392-4ED4-9344-9AE10CE5FBB9}"/>
+  <xr:revisionPtr revIDLastSave="817" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{602015E8-F012-4491-81BC-97C0FF05BC6E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="124">
   <si>
     <t>Age</t>
   </si>
@@ -398,6 +398,15 @@
   </si>
   <si>
     <t>花乡幸福家园小区东区</t>
+  </si>
+  <si>
+    <t>新村街道富丰园小区</t>
+  </si>
+  <si>
+    <t>长阳镇祥云街1号院</t>
+  </si>
+  <si>
+    <t>梨园镇北杨洼小区梨园家属院</t>
   </si>
 </sst>
 </file>
@@ -5344,9 +5353,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5487,7 +5498,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S27" si="0">SUM(B2:R2)</f>
+        <f t="shared" ref="S2:S28" si="0">SUM(B2:R2)</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -6359,7 +6370,7 @@
         <v>156</v>
       </c>
       <c r="T13">
-        <f t="shared" ref="T13:T27" si="2">S13-S12</f>
+        <f t="shared" ref="T13:T26" si="2">S13-S12</f>
         <v>24</v>
       </c>
       <c r="U13">
@@ -7482,6 +7493,85 @@
       </c>
       <c r="Y27">
         <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B28">
+        <v>12</v>
+      </c>
+      <c r="C28">
+        <v>46</v>
+      </c>
+      <c r="D28">
+        <v>58</v>
+      </c>
+      <c r="E28">
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <v>39</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+      <c r="I28">
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <v>18</v>
+      </c>
+      <c r="K28">
+        <v>10</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>39</v>
+      </c>
+      <c r="N28">
+        <v>7</v>
+      </c>
+      <c r="O28">
+        <v>7</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>26</v>
+      </c>
+      <c r="S28">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="T28">
+        <f>S28-S27</f>
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>4</v>
+      </c>
+      <c r="Y28">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -7492,7 +7582,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8579,6 +8669,62 @@
         <v>120</v>
       </c>
     </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>43876</v>
+      </c>
+      <c r="C78" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>43876</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>43876</v>
+      </c>
+      <c r="C80" t="s">
+        <v>75</v>
+      </c>
+      <c r="D80" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>43876</v>
+      </c>
+      <c r="C81" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81" t="s">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="817" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{602015E8-F012-4491-81BC-97C0FF05BC6E}"/>
+  <xr:revisionPtr revIDLastSave="840" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA1FD907-EB1E-4A58-BF8C-ABD25055B580}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="125">
   <si>
     <t>Age</t>
   </si>
@@ -407,6 +407,9 @@
   </si>
   <si>
     <t>梨园镇北杨洼小区梨园家属院</t>
+  </si>
+  <si>
+    <t>长阳镇康泽佳苑小区</t>
   </si>
 </sst>
 </file>
@@ -771,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C4E99C-2079-4C3E-9CA1-85716F2A1B38}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="H141" sqref="H141:I157"/>
     </sheetView>
   </sheetViews>
@@ -5353,11 +5356,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:Y29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5498,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S28" si="0">SUM(B2:R2)</f>
+        <f t="shared" ref="S2:S29" si="0">SUM(B2:R2)</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -7572,6 +7573,85 @@
       </c>
       <c r="Y28">
         <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>46</v>
+      </c>
+      <c r="D29">
+        <v>58</v>
+      </c>
+      <c r="E29">
+        <v>60</v>
+      </c>
+      <c r="F29">
+        <v>39</v>
+      </c>
+      <c r="G29">
+        <v>14</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>16</v>
+      </c>
+      <c r="J29">
+        <v>18</v>
+      </c>
+      <c r="K29">
+        <v>10</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>39</v>
+      </c>
+      <c r="N29">
+        <v>7</v>
+      </c>
+      <c r="O29">
+        <v>7</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>26</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+      <c r="T29">
+        <f>S29-S28</f>
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>4</v>
+      </c>
+      <c r="Y29">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -7582,9 +7662,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -8725,6 +8807,20 @@
         <v>115</v>
       </c>
     </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>43877</v>
+      </c>
+      <c r="C82" t="s">
+        <v>77</v>
+      </c>
+      <c r="D82" t="s">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="840" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DA1FD907-EB1E-4A58-BF8C-ABD25055B580}"/>
+  <xr:revisionPtr revIDLastSave="893" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB894DD8-D378-49C7-9B38-34B0B05F446C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="128">
   <si>
     <t>Age</t>
   </si>
@@ -410,6 +410,15 @@
   </si>
   <si>
     <t>长阳镇康泽佳苑小区</t>
+  </si>
+  <si>
+    <t>Severe_Critical</t>
+  </si>
+  <si>
+    <t>天通苑东三区2号</t>
+  </si>
+  <si>
+    <t>天通苑北街道天通北苑一区</t>
   </si>
 </sst>
 </file>
@@ -774,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C4E99C-2079-4C3E-9CA1-85716F2A1B38}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141:I157"/>
+    <sheetView topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="N134" sqref="N134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5356,9 +5365,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:Y29"/>
+  <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5366,7 +5377,7 @@
     <col min="2" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5442,8 +5453,11 @@
       <c r="Y1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43850</v>
       </c>
@@ -5499,7 +5513,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S29" si="0">SUM(B2:R2)</f>
+        <f t="shared" ref="S2:S30" si="0">SUM(B2:R2)</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -5521,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43851</v>
       </c>
@@ -5600,7 +5614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43852</v>
       </c>
@@ -5679,7 +5693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43853</v>
       </c>
@@ -5758,7 +5772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43854</v>
       </c>
@@ -5837,7 +5851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43855</v>
       </c>
@@ -5916,7 +5930,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43856</v>
       </c>
@@ -5995,7 +6009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43857</v>
       </c>
@@ -6074,7 +6088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43858</v>
       </c>
@@ -6153,7 +6167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43859</v>
       </c>
@@ -6232,7 +6246,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43860</v>
       </c>
@@ -6311,7 +6325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43861</v>
       </c>
@@ -6390,7 +6404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43862</v>
       </c>
@@ -6469,7 +6483,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43863</v>
       </c>
@@ -6548,7 +6562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43864</v>
       </c>
@@ -6627,7 +6641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43865</v>
       </c>
@@ -6706,7 +6720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43866</v>
       </c>
@@ -6785,7 +6799,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43867</v>
       </c>
@@ -6864,7 +6878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43868</v>
       </c>
@@ -6943,7 +6957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43869</v>
       </c>
@@ -7022,7 +7036,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43870</v>
       </c>
@@ -7101,7 +7115,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43871</v>
       </c>
@@ -7179,8 +7193,11 @@
       <c r="Y23">
         <v>48</v>
       </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43872</v>
       </c>
@@ -7258,8 +7275,11 @@
       <c r="Y24">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43873</v>
       </c>
@@ -7337,8 +7357,11 @@
       <c r="Y25">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43874</v>
       </c>
@@ -7416,8 +7439,11 @@
       <c r="Y26">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43875</v>
       </c>
@@ -7495,8 +7521,11 @@
       <c r="Y27">
         <v>97</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43876</v>
       </c>
@@ -7574,8 +7603,11 @@
       <c r="Y28">
         <v>105</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43877</v>
       </c>
@@ -7652,6 +7684,91 @@
       </c>
       <c r="Y29">
         <v>114</v>
+      </c>
+      <c r="Z29">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43878</v>
+      </c>
+      <c r="B30">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>47</v>
+      </c>
+      <c r="D30">
+        <v>58</v>
+      </c>
+      <c r="E30">
+        <v>60</v>
+      </c>
+      <c r="F30">
+        <v>40</v>
+      </c>
+      <c r="G30">
+        <v>14</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>16</v>
+      </c>
+      <c r="J30">
+        <v>18</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+      <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>39</v>
+      </c>
+      <c r="N30">
+        <v>7</v>
+      </c>
+      <c r="O30">
+        <v>7</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>26</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="0"/>
+        <v>387</v>
+      </c>
+      <c r="T30">
+        <f>S30-S29</f>
+        <v>6</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>6</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>4</v>
+      </c>
+      <c r="Y30">
+        <v>122</v>
+      </c>
+      <c r="Z30">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -7662,10 +7779,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="J83" sqref="J83"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="I85" sqref="I85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8821,6 +8938,90 @@
         <v>124</v>
       </c>
     </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>43878</v>
+      </c>
+      <c r="C83" t="s">
+        <v>43</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>43878</v>
+      </c>
+      <c r="C84" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>43878</v>
+      </c>
+      <c r="C85" t="s">
+        <v>72</v>
+      </c>
+      <c r="D85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>43878</v>
+      </c>
+      <c r="C86" t="s">
+        <v>72</v>
+      </c>
+      <c r="D86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>43878</v>
+      </c>
+      <c r="C87" t="s">
+        <v>72</v>
+      </c>
+      <c r="D87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>43878</v>
+      </c>
+      <c r="C88" t="s">
+        <v>72</v>
+      </c>
+      <c r="D88" t="s">
+        <v>104</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="893" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EB894DD8-D378-49C7-9B38-34B0B05F446C}"/>
+  <xr:revisionPtr revIDLastSave="985" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F708EDBE-0249-422A-8000-02680605EB13}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="136">
   <si>
     <t>Age</t>
   </si>
@@ -419,6 +419,30 @@
   </si>
   <si>
     <t>天通苑北街道天通北苑一区</t>
+  </si>
+  <si>
+    <t>New_Suspected</t>
+  </si>
+  <si>
+    <t>New_Close_Contact</t>
+  </si>
+  <si>
+    <t>Total_Suspected</t>
+  </si>
+  <si>
+    <t>Total_Close_Contact</t>
+  </si>
+  <si>
+    <t>Total_Ruled_Out</t>
+  </si>
+  <si>
+    <t>月坛街道三里河一区</t>
+  </si>
+  <si>
+    <t>广安门外街道三义东里</t>
+  </si>
+  <si>
+    <t>月坛三里河一区</t>
   </si>
 </sst>
 </file>
@@ -5365,10 +5389,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:Z30"/>
+  <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z32" sqref="Z32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5377,7 +5402,7 @@
     <col min="2" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5456,8 +5481,23 @@
       <c r="Z1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="AA1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43850</v>
       </c>
@@ -5513,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S30" si="0">SUM(B2:R2)</f>
+        <f t="shared" ref="S2:S32" si="0">SUM(B2:R2)</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -5535,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43851</v>
       </c>
@@ -5614,7 +5654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43852</v>
       </c>
@@ -5693,7 +5733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43853</v>
       </c>
@@ -5772,7 +5812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43854</v>
       </c>
@@ -5851,7 +5891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43855</v>
       </c>
@@ -5930,7 +5970,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43856</v>
       </c>
@@ -6009,7 +6049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43857</v>
       </c>
@@ -6088,7 +6128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43858</v>
       </c>
@@ -6167,7 +6207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43859</v>
       </c>
@@ -6246,7 +6286,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43860</v>
       </c>
@@ -6325,7 +6365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43861</v>
       </c>
@@ -6404,7 +6444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43862</v>
       </c>
@@ -6483,7 +6523,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43863</v>
       </c>
@@ -6562,7 +6602,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43864</v>
       </c>
@@ -6641,7 +6681,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43865</v>
       </c>
@@ -6720,7 +6760,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43866</v>
       </c>
@@ -6799,7 +6839,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43867</v>
       </c>
@@ -6878,7 +6918,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43868</v>
       </c>
@@ -6957,7 +6997,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43869</v>
       </c>
@@ -7036,7 +7076,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43870</v>
       </c>
@@ -7115,7 +7155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43871</v>
       </c>
@@ -7197,7 +7237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43872</v>
       </c>
@@ -7279,7 +7319,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43873</v>
       </c>
@@ -7361,7 +7401,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43874</v>
       </c>
@@ -7443,7 +7483,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43875</v>
       </c>
@@ -7525,7 +7565,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43876</v>
       </c>
@@ -7607,7 +7647,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43877</v>
       </c>
@@ -7689,7 +7729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43878</v>
       </c>
@@ -7769,6 +7809,205 @@
       </c>
       <c r="Z30">
         <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43879</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>52</v>
+      </c>
+      <c r="D31">
+        <v>58</v>
+      </c>
+      <c r="E31">
+        <v>61</v>
+      </c>
+      <c r="F31">
+        <v>40</v>
+      </c>
+      <c r="G31">
+        <v>14</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
+        <v>16</v>
+      </c>
+      <c r="J31">
+        <v>18</v>
+      </c>
+      <c r="K31">
+        <v>10</v>
+      </c>
+      <c r="L31">
+        <v>29</v>
+      </c>
+      <c r="M31">
+        <v>39</v>
+      </c>
+      <c r="N31">
+        <v>7</v>
+      </c>
+      <c r="O31">
+        <v>7</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>26</v>
+      </c>
+      <c r="S31">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+      <c r="T31">
+        <f>S31-S30</f>
+        <v>6</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>6</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>4</v>
+      </c>
+      <c r="Y31">
+        <v>145</v>
+      </c>
+      <c r="Z31">
+        <v>20</v>
+      </c>
+      <c r="AA31">
+        <v>58</v>
+      </c>
+      <c r="AB31">
+        <v>145</v>
+      </c>
+      <c r="AC31">
+        <v>108</v>
+      </c>
+      <c r="AD31">
+        <v>2075</v>
+      </c>
+      <c r="AE31">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43880</v>
+      </c>
+      <c r="B32">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>53</v>
+      </c>
+      <c r="D32">
+        <v>58</v>
+      </c>
+      <c r="E32">
+        <v>61</v>
+      </c>
+      <c r="F32">
+        <v>40</v>
+      </c>
+      <c r="G32">
+        <v>14</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>16</v>
+      </c>
+      <c r="J32">
+        <v>19</v>
+      </c>
+      <c r="K32">
+        <v>10</v>
+      </c>
+      <c r="L32">
+        <v>29</v>
+      </c>
+      <c r="M32">
+        <v>39</v>
+      </c>
+      <c r="N32">
+        <v>7</v>
+      </c>
+      <c r="O32">
+        <v>7</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>26</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+      <c r="T32">
+        <f>S32-S31</f>
+        <v>2</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>2</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>4</v>
+      </c>
+      <c r="Y32">
+        <v>153</v>
+      </c>
+      <c r="Z32">
+        <v>19</v>
+      </c>
+      <c r="AA32">
+        <v>25</v>
+      </c>
+      <c r="AB32">
+        <v>125</v>
+      </c>
+      <c r="AC32">
+        <v>16</v>
+      </c>
+      <c r="AD32">
+        <v>2091</v>
+      </c>
+      <c r="AE32">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43881</v>
       </c>
     </row>
   </sheetData>
@@ -7779,10 +8018,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
-  <dimension ref="A1:D88"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="I85" sqref="I85"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9022,6 +9261,90 @@
         <v>104</v>
       </c>
     </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>43879</v>
+      </c>
+      <c r="C89" t="s">
+        <v>43</v>
+      </c>
+      <c r="D89" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>43879</v>
+      </c>
+      <c r="C90" t="s">
+        <v>43</v>
+      </c>
+      <c r="D90" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>43879</v>
+      </c>
+      <c r="C91" t="s">
+        <v>43</v>
+      </c>
+      <c r="D91" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>43879</v>
+      </c>
+      <c r="C92" t="s">
+        <v>52</v>
+      </c>
+      <c r="D92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>43880</v>
+      </c>
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>43880</v>
+      </c>
+      <c r="C94" t="s">
+        <v>75</v>
+      </c>
+      <c r="D94" t="s">
+        <v>123</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="985" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F708EDBE-0249-422A-8000-02680605EB13}"/>
+  <xr:revisionPtr revIDLastSave="1105" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A7FECAE-A1A1-437A-B463-7C8DDBEED3DE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="138">
   <si>
     <t>Age</t>
   </si>
@@ -443,6 +443,12 @@
   </si>
   <si>
     <t>月坛三里河一区</t>
+  </si>
+  <si>
+    <t>常营（地区）乡常营中路6号院</t>
+  </si>
+  <si>
+    <t>和平街和平家园10区</t>
   </si>
 </sst>
 </file>
@@ -5389,11 +5395,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:AE33"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z32" sqref="Z32"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5553,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S32" si="0">SUM(B2:R2)</f>
+        <f t="shared" ref="S2:S35" si="0">SUM(B2:R2)</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -6522,6 +6530,9 @@
       <c r="Y14">
         <v>9</v>
       </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -6601,6 +6612,9 @@
       <c r="Y15">
         <v>12</v>
       </c>
+      <c r="Z15">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -6680,6 +6694,9 @@
       <c r="Y16">
         <v>23</v>
       </c>
+      <c r="Z16">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
@@ -6759,6 +6776,9 @@
       <c r="Y17">
         <v>24</v>
       </c>
+      <c r="Z17">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
@@ -6838,6 +6858,9 @@
       <c r="Y18">
         <v>31</v>
       </c>
+      <c r="Z18">
+        <v>11</v>
+      </c>
     </row>
     <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
@@ -6917,6 +6940,12 @@
       <c r="Y19">
         <v>33</v>
       </c>
+      <c r="Z19">
+        <v>15</v>
+      </c>
+      <c r="AB19">
+        <v>157</v>
+      </c>
     </row>
     <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
@@ -6996,6 +7025,21 @@
       <c r="Y20">
         <v>34</v>
       </c>
+      <c r="Z20">
+        <v>14</v>
+      </c>
+      <c r="AB20">
+        <v>163</v>
+      </c>
+      <c r="AC20">
+        <v>181</v>
+      </c>
+      <c r="AD20">
+        <v>1202</v>
+      </c>
+      <c r="AE20">
+        <v>498</v>
+      </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -7075,6 +7119,21 @@
       <c r="Y21">
         <v>37</v>
       </c>
+      <c r="Z21">
+        <v>18</v>
+      </c>
+      <c r="AB21">
+        <v>184</v>
+      </c>
+      <c r="AC21">
+        <v>217</v>
+      </c>
+      <c r="AD21">
+        <v>1419</v>
+      </c>
+      <c r="AE21">
+        <v>548</v>
+      </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -7154,6 +7213,21 @@
       <c r="Y22">
         <v>44</v>
       </c>
+      <c r="Z22">
+        <v>17</v>
+      </c>
+      <c r="AB22">
+        <v>207</v>
+      </c>
+      <c r="AC22">
+        <v>46</v>
+      </c>
+      <c r="AD22">
+        <v>1465</v>
+      </c>
+      <c r="AE22">
+        <v>632</v>
+      </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -7236,6 +7310,18 @@
       <c r="Z23">
         <v>18</v>
       </c>
+      <c r="AB23">
+        <v>236</v>
+      </c>
+      <c r="AC23">
+        <v>37</v>
+      </c>
+      <c r="AD23">
+        <v>1502</v>
+      </c>
+      <c r="AE23">
+        <v>677</v>
+      </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -7318,6 +7404,18 @@
       <c r="Z24">
         <v>19</v>
       </c>
+      <c r="AB24">
+        <v>218</v>
+      </c>
+      <c r="AC24">
+        <v>37</v>
+      </c>
+      <c r="AD24">
+        <v>1539</v>
+      </c>
+      <c r="AE24">
+        <v>709</v>
+      </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -7400,6 +7498,18 @@
       <c r="Z25">
         <v>22</v>
       </c>
+      <c r="AB25">
+        <v>194</v>
+      </c>
+      <c r="AC25">
+        <v>163</v>
+      </c>
+      <c r="AD25">
+        <v>1702</v>
+      </c>
+      <c r="AE25">
+        <v>766</v>
+      </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -7482,6 +7592,18 @@
       <c r="Z26">
         <v>22</v>
       </c>
+      <c r="AB26">
+        <v>167</v>
+      </c>
+      <c r="AC26">
+        <v>74</v>
+      </c>
+      <c r="AD26">
+        <v>1776</v>
+      </c>
+      <c r="AE26">
+        <v>798</v>
+      </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -7543,7 +7665,7 @@
         <v>375</v>
       </c>
       <c r="T27">
-        <f>S27-S26</f>
+        <f t="shared" ref="T27:T35" si="3">S27-S26</f>
         <v>3</v>
       </c>
       <c r="U27">
@@ -7563,6 +7685,18 @@
       </c>
       <c r="Z27">
         <v>23</v>
+      </c>
+      <c r="AB27">
+        <v>155</v>
+      </c>
+      <c r="AC27">
+        <v>67</v>
+      </c>
+      <c r="AD27">
+        <v>1843</v>
+      </c>
+      <c r="AE27">
+        <v>974</v>
       </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
@@ -7625,7 +7759,7 @@
         <v>380</v>
       </c>
       <c r="T28">
-        <f>S28-S27</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="U28">
@@ -7645,6 +7779,18 @@
       </c>
       <c r="Z28">
         <v>24</v>
+      </c>
+      <c r="AB28">
+        <v>122</v>
+      </c>
+      <c r="AC28">
+        <v>6</v>
+      </c>
+      <c r="AD28">
+        <v>1849</v>
+      </c>
+      <c r="AE28">
+        <v>988</v>
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
@@ -7707,7 +7853,7 @@
         <v>381</v>
       </c>
       <c r="T29">
-        <f>S29-S28</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="U29">
@@ -7727,6 +7873,21 @@
       </c>
       <c r="Z29">
         <v>23</v>
+      </c>
+      <c r="AA29">
+        <v>33</v>
+      </c>
+      <c r="AB29">
+        <v>116</v>
+      </c>
+      <c r="AC29">
+        <v>71</v>
+      </c>
+      <c r="AD29">
+        <v>1920</v>
+      </c>
+      <c r="AE29">
+        <v>1132</v>
       </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
@@ -7789,7 +7950,7 @@
         <v>387</v>
       </c>
       <c r="T30">
-        <f>S30-S29</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="U30">
@@ -7809,6 +7970,21 @@
       </c>
       <c r="Z30">
         <v>20</v>
+      </c>
+      <c r="AA30">
+        <v>49</v>
+      </c>
+      <c r="AB30">
+        <v>128</v>
+      </c>
+      <c r="AC30">
+        <v>47</v>
+      </c>
+      <c r="AD30">
+        <v>1967</v>
+      </c>
+      <c r="AE30">
+        <v>1273</v>
       </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
@@ -7871,7 +8047,7 @@
         <v>393</v>
       </c>
       <c r="T31">
-        <f>S31-S30</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="U31">
@@ -7968,7 +8144,7 @@
         <v>395</v>
       </c>
       <c r="T32">
-        <f>S32-S31</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="U32">
@@ -8005,9 +8181,295 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43881</v>
+      </c>
+      <c r="B33">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>53</v>
+      </c>
+      <c r="D33">
+        <v>58</v>
+      </c>
+      <c r="E33">
+        <v>61</v>
+      </c>
+      <c r="F33">
+        <v>41</v>
+      </c>
+      <c r="G33">
+        <v>14</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33">
+        <v>16</v>
+      </c>
+      <c r="J33">
+        <v>19</v>
+      </c>
+      <c r="K33">
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <v>29</v>
+      </c>
+      <c r="M33">
+        <v>39</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33">
+        <v>7</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>26</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+      <c r="T33">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>4</v>
+      </c>
+      <c r="Y33">
+        <v>169</v>
+      </c>
+      <c r="Z33">
+        <v>19</v>
+      </c>
+      <c r="AA33">
+        <v>41</v>
+      </c>
+      <c r="AB33">
+        <v>114</v>
+      </c>
+      <c r="AC33">
+        <v>4</v>
+      </c>
+      <c r="AD33">
+        <v>2095</v>
+      </c>
+      <c r="AE33">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B34">
+        <v>12</v>
+      </c>
+      <c r="C34">
+        <v>53</v>
+      </c>
+      <c r="D34">
+        <v>60</v>
+      </c>
+      <c r="E34">
+        <v>62</v>
+      </c>
+      <c r="F34">
+        <v>41</v>
+      </c>
+      <c r="G34">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <v>3</v>
+      </c>
+      <c r="I34">
+        <v>16</v>
+      </c>
+      <c r="J34">
+        <v>19</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>29</v>
+      </c>
+      <c r="M34">
+        <v>39</v>
+      </c>
+      <c r="N34">
+        <v>7</v>
+      </c>
+      <c r="O34">
+        <v>7</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>26</v>
+      </c>
+      <c r="S34">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="T34">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>2</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>4</v>
+      </c>
+      <c r="Y34">
+        <v>178</v>
+      </c>
+      <c r="Z34">
+        <v>19</v>
+      </c>
+      <c r="AA34">
+        <v>26</v>
+      </c>
+      <c r="AB34">
+        <v>104</v>
+      </c>
+      <c r="AC34">
+        <v>338</v>
+      </c>
+      <c r="AD34">
+        <v>2443</v>
+      </c>
+      <c r="AE34">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B35">
+        <v>12</v>
+      </c>
+      <c r="C35">
+        <v>53</v>
+      </c>
+      <c r="D35">
+        <v>60</v>
+      </c>
+      <c r="E35">
+        <v>62</v>
+      </c>
+      <c r="F35">
+        <v>41</v>
+      </c>
+      <c r="G35">
+        <v>14</v>
+      </c>
+      <c r="H35">
+        <v>3</v>
+      </c>
+      <c r="I35">
+        <v>16</v>
+      </c>
+      <c r="J35">
+        <v>19</v>
+      </c>
+      <c r="K35">
+        <v>10</v>
+      </c>
+      <c r="L35">
+        <v>29</v>
+      </c>
+      <c r="M35">
+        <v>39</v>
+      </c>
+      <c r="N35">
+        <v>7</v>
+      </c>
+      <c r="O35">
+        <v>7</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>26</v>
+      </c>
+      <c r="S35">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="T35">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>4</v>
+      </c>
+      <c r="Y35">
+        <v>189</v>
+      </c>
+      <c r="Z35">
+        <v>17</v>
+      </c>
+      <c r="AA35">
+        <v>35</v>
+      </c>
+      <c r="AB35">
+        <v>100</v>
+      </c>
+      <c r="AC35">
+        <v>19</v>
+      </c>
+      <c r="AD35">
+        <v>2452</v>
+      </c>
+      <c r="AE35">
+        <v>1655</v>
       </c>
     </row>
   </sheetData>
@@ -8018,11 +8480,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G91" sqref="G91"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9345,6 +9805,48 @@
         <v>123</v>
       </c>
     </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>43881</v>
+      </c>
+      <c r="C95" t="s">
+        <v>69</v>
+      </c>
+      <c r="D95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>43882</v>
+      </c>
+      <c r="C96" t="s">
+        <v>46</v>
+      </c>
+      <c r="D96" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>43882</v>
+      </c>
+      <c r="C97" t="s">
+        <v>46</v>
+      </c>
+      <c r="D97" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1105" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0A7FECAE-A1A1-437A-B463-7C8DDBEED3DE}"/>
+  <xr:revisionPtr revIDLastSave="1118" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{362D0F64-B798-4919-AEDD-8449F3E255E8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C4E99C-2079-4C3E-9CA1-85716F2A1B38}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="N134" sqref="N134"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5395,13 +5395,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:AE35"/>
+  <dimension ref="A1:AE36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AE37" sqref="AE37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5561,7 +5561,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S35" si="0">SUM(B2:R2)</f>
+        <f t="shared" ref="S2:S36" si="0">SUM(B2:R2)</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -7665,7 +7665,7 @@
         <v>375</v>
       </c>
       <c r="T27">
-        <f t="shared" ref="T27:T35" si="3">S27-S26</f>
+        <f t="shared" ref="T27:T36" si="3">S27-S26</f>
         <v>3</v>
       </c>
       <c r="U27">
@@ -8470,6 +8470,103 @@
       </c>
       <c r="AE35">
         <v>1655</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B36">
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <v>53</v>
+      </c>
+      <c r="D36">
+        <v>60</v>
+      </c>
+      <c r="E36">
+        <v>62</v>
+      </c>
+      <c r="F36">
+        <v>41</v>
+      </c>
+      <c r="G36">
+        <v>14</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>16</v>
+      </c>
+      <c r="J36">
+        <v>19</v>
+      </c>
+      <c r="K36">
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <v>29</v>
+      </c>
+      <c r="M36">
+        <v>39</v>
+      </c>
+      <c r="N36">
+        <v>7</v>
+      </c>
+      <c r="O36">
+        <v>7</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>26</v>
+      </c>
+      <c r="S36">
+        <f t="shared" si="0"/>
+        <v>399</v>
+      </c>
+      <c r="T36">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>4</v>
+      </c>
+      <c r="Y36">
+        <v>198</v>
+      </c>
+      <c r="Z36">
+        <v>16</v>
+      </c>
+      <c r="AA36">
+        <v>30</v>
+      </c>
+      <c r="AB36">
+        <v>94</v>
+      </c>
+      <c r="AC36">
+        <v>32</v>
+      </c>
+      <c r="AD36">
+        <v>2484</v>
+      </c>
+      <c r="AE36">
+        <v>1694</v>
       </c>
     </row>
   </sheetData>
@@ -8482,7 +8579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1118" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{362D0F64-B798-4919-AEDD-8449F3E255E8}"/>
+  <xr:revisionPtr revIDLastSave="1142" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F2BA29F1-E1F9-47EB-8290-F6CF47201B93}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="139">
   <si>
     <t>Age</t>
   </si>
@@ -449,6 +449,9 @@
   </si>
   <si>
     <t>和平街和平家园10区</t>
+  </si>
+  <si>
+    <t>安贞街道裕民路甲3号</t>
   </si>
 </sst>
 </file>
@@ -813,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66C4E99C-2079-4C3E-9CA1-85716F2A1B38}">
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+    <sheetView topLeftCell="A157" workbookViewId="0">
       <selection activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
@@ -5395,13 +5398,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:AE36"/>
+  <dimension ref="A1:AE37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE37" sqref="AE37"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5561,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S36" si="0">SUM(B2:R2)</f>
+        <f t="shared" ref="S2:S37" si="0">SUM(B2:R2)</f>
         <v>5</v>
       </c>
       <c r="T2">
@@ -7665,7 +7668,7 @@
         <v>375</v>
       </c>
       <c r="T27">
-        <f t="shared" ref="T27:T36" si="3">S27-S26</f>
+        <f t="shared" ref="T27:T37" si="3">S27-S26</f>
         <v>3</v>
       </c>
       <c r="U27">
@@ -8567,6 +8570,103 @@
       </c>
       <c r="AE36">
         <v>1694</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43885</v>
+      </c>
+      <c r="B37">
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>53</v>
+      </c>
+      <c r="D37">
+        <v>61</v>
+      </c>
+      <c r="E37">
+        <v>62</v>
+      </c>
+      <c r="F37">
+        <v>41</v>
+      </c>
+      <c r="G37">
+        <v>14</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
+      </c>
+      <c r="I37">
+        <v>16</v>
+      </c>
+      <c r="J37">
+        <v>19</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>29</v>
+      </c>
+      <c r="M37">
+        <v>39</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>7</v>
+      </c>
+      <c r="P37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>25</v>
+      </c>
+      <c r="S37">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="T37">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>0</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>4</v>
+      </c>
+      <c r="Y37">
+        <v>215</v>
+      </c>
+      <c r="Z37">
+        <v>13</v>
+      </c>
+      <c r="AA37">
+        <v>18</v>
+      </c>
+      <c r="AB37">
+        <v>73</v>
+      </c>
+      <c r="AC37">
+        <v>3</v>
+      </c>
+      <c r="AD37">
+        <v>2487</v>
+      </c>
+      <c r="AE37">
+        <v>1748</v>
       </c>
     </row>
   </sheetData>
@@ -8577,9 +8677,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -9944,6 +10044,20 @@
         <v>137</v>
       </c>
     </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>43885</v>
+      </c>
+      <c r="C98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D98" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1142" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F2BA29F1-E1F9-47EB-8290-F6CF47201B93}"/>
+  <xr:revisionPtr revIDLastSave="1334" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B17C988-A7CF-4042-B7DA-98FE25901D3E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="145">
   <si>
     <t>Age</t>
   </si>
@@ -452,6 +452,24 @@
   </si>
   <si>
     <t>安贞街道裕民路甲3号</t>
+  </si>
+  <si>
+    <t>大红门街道石榴园南里小区</t>
+  </si>
+  <si>
+    <t>Observation</t>
+  </si>
+  <si>
+    <t>Foreign_Contact</t>
+  </si>
+  <si>
+    <t>Foreign</t>
+  </si>
+  <si>
+    <t>西北旺（地区）镇唐家岭新城T05小区</t>
+  </si>
+  <si>
+    <t>东铁匠营街道南三环中路65号院</t>
   </si>
 </sst>
 </file>
@@ -5398,7 +5416,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:AE37"/>
+  <dimension ref="A1:AH46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -5413,7 +5431,7 @@
     <col min="2" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -5469,46 +5487,55 @@
         <v>33</v>
       </c>
       <c r="S1" t="s">
+        <v>142</v>
+      </c>
+      <c r="T1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>15</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
+        <v>141</v>
+      </c>
+      <c r="X1" t="s">
         <v>14</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>34</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>36</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>130</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AH1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43850</v>
       </c>
@@ -5564,17 +5591,17 @@
         <v>1</v>
       </c>
       <c r="S2">
-        <f t="shared" ref="S2:S37" si="0">SUM(B2:R2)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T2">
+        <f>SUM(B2:S2)</f>
         <v>5</v>
       </c>
       <c r="U2">
         <v>5</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -5585,8 +5612,14 @@
       <c r="Y2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43851</v>
       </c>
@@ -5642,19 +5675,19 @@
         <v>1</v>
       </c>
       <c r="S3">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <f t="shared" ref="T3:T12" si="1">S3-S2</f>
+        <f t="shared" ref="T3:T42" si="0">SUM(B3:S3)</f>
+        <v>10</v>
+      </c>
+      <c r="U3">
+        <f t="shared" ref="U3:U12" si="1">T3-T2</f>
         <v>5</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>5</v>
       </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
       <c r="W3">
         <v>0</v>
       </c>
@@ -5664,8 +5697,14 @@
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43852</v>
       </c>
@@ -5721,19 +5760,19 @@
         <v>2</v>
       </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>4</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
       <c r="W4">
         <v>0</v>
       </c>
@@ -5743,8 +5782,14 @@
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43853</v>
       </c>
@@ -5800,19 +5845,19 @@
         <v>7</v>
       </c>
       <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>12</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
         <v>0</v>
       </c>
@@ -5822,8 +5867,14 @@
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43854</v>
       </c>
@@ -5879,18 +5930,18 @@
         <v>10</v>
       </c>
       <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="U6">
-        <v>10</v>
-      </c>
       <c r="V6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -5899,10 +5950,16 @@
         <v>0</v>
       </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43855</v>
       </c>
@@ -5958,19 +6015,19 @@
         <v>11</v>
       </c>
       <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>15</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
       <c r="W7">
         <v>0</v>
       </c>
@@ -5978,10 +6035,16 @@
         <v>0</v>
       </c>
       <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43856</v>
       </c>
@@ -6037,30 +6100,36 @@
         <v>12</v>
       </c>
       <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>11</v>
       </c>
-      <c r="V8">
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
         <v>6</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
       <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43857</v>
       </c>
@@ -6116,30 +6185,36 @@
         <v>11</v>
       </c>
       <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="U9">
-        <v>10</v>
-      </c>
       <c r="V9">
+        <v>10</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>2</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43858</v>
       </c>
@@ -6195,30 +6270,36 @@
         <v>11</v>
       </c>
       <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>12</v>
       </c>
-      <c r="V10">
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
         <v>14</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
         <v>1</v>
       </c>
-      <c r="Y10">
+      <c r="AA10">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43859</v>
       </c>
@@ -6274,30 +6355,36 @@
         <v>11</v>
       </c>
       <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>9</v>
       </c>
-      <c r="V11">
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>3</v>
       </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
         <v>1</v>
       </c>
-      <c r="Y11">
+      <c r="AA11">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43860</v>
       </c>
@@ -6353,30 +6440,36 @@
         <v>11</v>
       </c>
       <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>9</v>
       </c>
-      <c r="V12">
-        <v>10</v>
-      </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
+        <v>10</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
         <v>1</v>
       </c>
-      <c r="Y12">
+      <c r="AA12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43861</v>
       </c>
@@ -6432,15 +6525,15 @@
         <v>11</v>
       </c>
       <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="T13">
-        <f t="shared" ref="T13:T26" si="2">S13-S12</f>
+      <c r="U13">
+        <f t="shared" ref="U13:U26" si="2">T13-T12</f>
         <v>24</v>
-      </c>
-      <c r="U13">
-        <v>17</v>
       </c>
       <c r="V13">
         <v>17</v>
@@ -6449,13 +6542,19 @@
         <v>0</v>
       </c>
       <c r="X13">
+        <v>17</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
         <v>1</v>
       </c>
-      <c r="Y13">
+      <c r="AA13">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43862</v>
       </c>
@@ -6511,33 +6610,39 @@
         <v>11</v>
       </c>
       <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>21</v>
       </c>
-      <c r="V14">
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
         <v>8</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <v>1</v>
       </c>
-      <c r="Y14">
+      <c r="AA14">
         <v>9</v>
       </c>
-      <c r="Z14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43863</v>
       </c>
@@ -6593,33 +6698,39 @@
         <v>19</v>
       </c>
       <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>15</v>
       </c>
-      <c r="V15">
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
         <v>16</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
         <v>4</v>
       </c>
-      <c r="X15">
+      <c r="Z15">
         <v>1</v>
       </c>
-      <c r="Y15">
+      <c r="AA15">
         <v>12</v>
       </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43864</v>
       </c>
@@ -6675,33 +6786,39 @@
         <v>20</v>
       </c>
       <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>6</v>
       </c>
-      <c r="V16">
-        <v>10</v>
-      </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
+        <v>10</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
         <v>1</v>
       </c>
-      <c r="Y16">
+      <c r="AA16">
         <v>23</v>
       </c>
-      <c r="Z16">
+      <c r="AB16">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43865</v>
       </c>
@@ -6757,33 +6874,39 @@
         <v>21</v>
       </c>
       <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="0"/>
         <v>253</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>14</v>
       </c>
-      <c r="V17">
-        <v>10</v>
-      </c>
       <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>10</v>
+      </c>
+      <c r="Y17">
         <v>1</v>
       </c>
-      <c r="X17">
+      <c r="Z17">
         <v>1</v>
       </c>
-      <c r="Y17">
+      <c r="AA17">
         <v>24</v>
       </c>
-      <c r="Z17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AB17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43866</v>
       </c>
@@ -6839,33 +6962,39 @@
         <v>21</v>
       </c>
       <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
         <f t="shared" si="0"/>
         <v>274</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>8</v>
       </c>
-      <c r="V18">
-        <v>10</v>
-      </c>
       <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>10</v>
+      </c>
+      <c r="Y18">
         <v>1</v>
       </c>
-      <c r="X18">
+      <c r="Z18">
         <v>1</v>
       </c>
-      <c r="Y18">
+      <c r="AA18">
         <v>31</v>
       </c>
-      <c r="Z18">
+      <c r="AB18">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43867</v>
       </c>
@@ -6921,36 +7050,42 @@
         <v>24</v>
       </c>
       <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="0"/>
         <v>297</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="U19">
-        <v>10</v>
-      </c>
       <c r="V19">
+        <v>10</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
         <v>14</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
         <v>2</v>
       </c>
-      <c r="X19">
+      <c r="Z19">
         <v>1</v>
       </c>
-      <c r="Y19">
+      <c r="AA19">
         <v>33</v>
       </c>
-      <c r="Z19">
+      <c r="AB19">
         <v>15</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>157</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43868</v>
       </c>
@@ -7006,45 +7141,55 @@
         <v>25</v>
       </c>
       <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
         <f t="shared" si="0"/>
         <v>315</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>3</v>
       </c>
-      <c r="V20">
-        <v>10</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>10</v>
+      </c>
+      <c r="Y20" s="3">
         <v>7</v>
       </c>
-      <c r="X20">
+      <c r="Z20">
         <v>2</v>
       </c>
-      <c r="Y20">
+      <c r="AA20">
         <v>34</v>
       </c>
-      <c r="Z20">
+      <c r="AB20">
         <v>14</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>163</v>
       </c>
-      <c r="AC20">
+      <c r="AE20">
         <v>181</v>
       </c>
-      <c r="AD20">
+      <c r="AF20">
         <v>1202</v>
       </c>
-      <c r="AE20">
+      <c r="AG20">
         <v>498</v>
       </c>
-    </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AH20">
+        <f>AF20-AG20</f>
+        <v>704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43869</v>
       </c>
@@ -7100,45 +7245,55 @@
         <v>24</v>
       </c>
       <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
         <f t="shared" si="0"/>
         <v>326</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
       <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
         <v>8</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>3</v>
       </c>
-      <c r="X21">
+      <c r="Z21">
         <v>2</v>
       </c>
-      <c r="Y21">
+      <c r="AA21">
         <v>37</v>
       </c>
-      <c r="Z21">
+      <c r="AB21">
         <v>18</v>
       </c>
-      <c r="AB21">
+      <c r="AD21">
         <v>184</v>
       </c>
-      <c r="AC21">
+      <c r="AE21">
         <v>217</v>
       </c>
-      <c r="AD21">
+      <c r="AF21">
         <v>1419</v>
       </c>
-      <c r="AE21">
+      <c r="AG21">
         <v>548</v>
       </c>
-    </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AH21">
+        <f t="shared" ref="AH21:AH39" si="3">AF21-AG21</f>
+        <v>871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43870</v>
       </c>
@@ -7194,45 +7349,55 @@
         <v>25</v>
       </c>
       <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
         <f t="shared" si="0"/>
         <v>337</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>2</v>
       </c>
-      <c r="V22">
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
         <v>7</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
         <v>2</v>
       </c>
-      <c r="X22">
+      <c r="Z22">
         <v>2</v>
       </c>
-      <c r="Y22">
+      <c r="AA22">
         <v>44</v>
       </c>
-      <c r="Z22">
+      <c r="AB22">
         <v>17</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>207</v>
       </c>
-      <c r="AC22">
+      <c r="AE22">
         <v>46</v>
       </c>
-      <c r="AD22">
+      <c r="AF22">
         <v>1465</v>
       </c>
-      <c r="AE22">
+      <c r="AG22">
         <v>632</v>
       </c>
-    </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AH22">
+        <f t="shared" si="3"/>
+        <v>833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43871</v>
       </c>
@@ -7288,45 +7453,55 @@
         <v>25</v>
       </c>
       <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
         <f t="shared" si="0"/>
         <v>342</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>1</v>
       </c>
-      <c r="V23">
-        <v>3</v>
-      </c>
       <c r="W23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23">
         <v>3</v>
       </c>
       <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>3</v>
+      </c>
+      <c r="AA23">
         <v>48</v>
       </c>
-      <c r="Z23">
+      <c r="AB23">
         <v>18</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>236</v>
       </c>
-      <c r="AC23">
+      <c r="AE23">
         <v>37</v>
       </c>
-      <c r="AD23">
+      <c r="AF23">
         <v>1502</v>
       </c>
-      <c r="AE23">
+      <c r="AG23">
         <v>677</v>
       </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AH23">
+        <f t="shared" si="3"/>
+        <v>825</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43872</v>
       </c>
@@ -7382,45 +7557,55 @@
         <v>25</v>
       </c>
       <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
       <c r="V24">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
+        <v>10</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
         <v>3</v>
       </c>
-      <c r="Y24">
+      <c r="AA24">
         <v>56</v>
       </c>
-      <c r="Z24">
+      <c r="AB24">
         <v>19</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>218</v>
       </c>
-      <c r="AC24">
+      <c r="AE24">
         <v>37</v>
       </c>
-      <c r="AD24">
+      <c r="AF24">
         <v>1539</v>
       </c>
-      <c r="AE24">
+      <c r="AG24">
         <v>709</v>
       </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AH24">
+        <f t="shared" si="3"/>
+        <v>830</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43873</v>
       </c>
@@ -7476,45 +7661,55 @@
         <v>26</v>
       </c>
       <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="0"/>
         <v>366</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>1</v>
       </c>
-      <c r="V25">
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
         <v>14</v>
       </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
         <v>3</v>
       </c>
-      <c r="Y25">
+      <c r="AA25">
         <v>68</v>
       </c>
-      <c r="Z25">
+      <c r="AB25">
         <v>22</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>194</v>
       </c>
-      <c r="AC25">
+      <c r="AE25">
         <v>163</v>
       </c>
-      <c r="AD25">
+      <c r="AF25">
         <v>1702</v>
       </c>
-      <c r="AE25">
+      <c r="AG25">
         <v>766</v>
       </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AH25">
+        <f t="shared" si="3"/>
+        <v>936</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43874</v>
       </c>
@@ -7570,45 +7765,55 @@
         <v>26</v>
       </c>
       <c r="S26">
-        <f>SUM(B26:R26)</f>
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="0"/>
         <v>372</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
       <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
         <v>5</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
         <v>1</v>
       </c>
-      <c r="X26">
+      <c r="Z26">
         <v>3</v>
       </c>
-      <c r="Y26">
+      <c r="AA26">
         <v>79</v>
       </c>
-      <c r="Z26">
+      <c r="AB26">
         <v>22</v>
       </c>
-      <c r="AB26">
+      <c r="AD26">
         <v>167</v>
       </c>
-      <c r="AC26">
+      <c r="AE26">
         <v>74</v>
       </c>
-      <c r="AD26">
+      <c r="AF26">
         <v>1776</v>
       </c>
-      <c r="AE26">
+      <c r="AG26">
         <v>798</v>
       </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AH26">
+        <f t="shared" si="3"/>
+        <v>978</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43875</v>
       </c>
@@ -7664,45 +7869,55 @@
         <v>26</v>
       </c>
       <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="T27">
-        <f t="shared" ref="T27:T37" si="3">S27-S26</f>
+      <c r="U27">
+        <f t="shared" ref="U27:U42" si="4">T27-T26</f>
         <v>3</v>
       </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
       <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
         <v>2</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
         <v>1</v>
       </c>
-      <c r="X27">
+      <c r="Z27">
         <v>4</v>
       </c>
-      <c r="Y27">
+      <c r="AA27">
         <v>97</v>
       </c>
-      <c r="Z27">
+      <c r="AB27">
         <v>23</v>
       </c>
-      <c r="AB27">
+      <c r="AD27">
         <v>155</v>
       </c>
-      <c r="AC27">
+      <c r="AE27">
         <v>67</v>
       </c>
-      <c r="AD27">
+      <c r="AF27">
         <v>1843</v>
       </c>
-      <c r="AE27">
+      <c r="AG27">
         <v>974</v>
       </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="AH27">
+        <f t="shared" si="3"/>
+        <v>869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43876</v>
       </c>
@@ -7758,45 +7973,55 @@
         <v>26</v>
       </c>
       <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="T28">
+      <c r="U28">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>2</v>
+      </c>
+      <c r="Y28">
+        <v>2</v>
+      </c>
+      <c r="Z28">
+        <v>4</v>
+      </c>
+      <c r="AA28">
+        <v>105</v>
+      </c>
+      <c r="AB28">
+        <v>24</v>
+      </c>
+      <c r="AD28">
+        <v>122</v>
+      </c>
+      <c r="AE28">
+        <v>6</v>
+      </c>
+      <c r="AF28">
+        <v>1849</v>
+      </c>
+      <c r="AG28">
+        <v>988</v>
+      </c>
+      <c r="AH28">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="U28">
-        <v>1</v>
-      </c>
-      <c r="V28">
-        <v>2</v>
-      </c>
-      <c r="W28">
-        <v>2</v>
-      </c>
-      <c r="X28">
-        <v>4</v>
-      </c>
-      <c r="Y28">
-        <v>105</v>
-      </c>
-      <c r="Z28">
-        <v>24</v>
-      </c>
-      <c r="AB28">
-        <v>122</v>
-      </c>
-      <c r="AC28">
-        <v>6</v>
-      </c>
-      <c r="AD28">
-        <v>1849</v>
-      </c>
-      <c r="AE28">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43877</v>
       </c>
@@ -7852,48 +8077,58 @@
         <v>26</v>
       </c>
       <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
         <f t="shared" si="0"/>
         <v>381</v>
       </c>
-      <c r="T29">
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>1</v>
+      </c>
+      <c r="Z29">
+        <v>4</v>
+      </c>
+      <c r="AA29">
+        <v>114</v>
+      </c>
+      <c r="AB29">
+        <v>23</v>
+      </c>
+      <c r="AC29">
+        <v>33</v>
+      </c>
+      <c r="AD29">
+        <v>116</v>
+      </c>
+      <c r="AE29">
+        <v>71</v>
+      </c>
+      <c r="AF29">
+        <v>1920</v>
+      </c>
+      <c r="AG29">
+        <v>1132</v>
+      </c>
+      <c r="AH29">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>1</v>
-      </c>
-      <c r="X29">
-        <v>4</v>
-      </c>
-      <c r="Y29">
-        <v>114</v>
-      </c>
-      <c r="Z29">
-        <v>23</v>
-      </c>
-      <c r="AA29">
-        <v>33</v>
-      </c>
-      <c r="AB29">
-        <v>116</v>
-      </c>
-      <c r="AC29">
-        <v>71</v>
-      </c>
-      <c r="AD29">
-        <v>1920</v>
-      </c>
-      <c r="AE29">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43878</v>
       </c>
@@ -7949,48 +8184,58 @@
         <v>26</v>
       </c>
       <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
         <f t="shared" si="0"/>
         <v>387</v>
       </c>
-      <c r="T30">
+      <c r="U30">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>6</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>4</v>
+      </c>
+      <c r="AA30">
+        <v>122</v>
+      </c>
+      <c r="AB30">
+        <v>20</v>
+      </c>
+      <c r="AC30">
+        <v>49</v>
+      </c>
+      <c r="AD30">
+        <v>128</v>
+      </c>
+      <c r="AE30">
+        <v>47</v>
+      </c>
+      <c r="AF30">
+        <v>1967</v>
+      </c>
+      <c r="AG30">
+        <v>1273</v>
+      </c>
+      <c r="AH30">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>6</v>
-      </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>4</v>
-      </c>
-      <c r="Y30">
-        <v>122</v>
-      </c>
-      <c r="Z30">
-        <v>20</v>
-      </c>
-      <c r="AA30">
-        <v>49</v>
-      </c>
-      <c r="AB30">
-        <v>128</v>
-      </c>
-      <c r="AC30">
-        <v>47</v>
-      </c>
-      <c r="AD30">
-        <v>1967</v>
-      </c>
-      <c r="AE30">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43879</v>
       </c>
@@ -8046,48 +8291,58 @@
         <v>26</v>
       </c>
       <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
         <f t="shared" si="0"/>
         <v>393</v>
       </c>
-      <c r="T31">
+      <c r="U31">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>6</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>4</v>
+      </c>
+      <c r="AA31">
+        <v>145</v>
+      </c>
+      <c r="AB31">
+        <v>20</v>
+      </c>
+      <c r="AC31">
+        <v>58</v>
+      </c>
+      <c r="AD31">
+        <v>145</v>
+      </c>
+      <c r="AE31">
+        <v>108</v>
+      </c>
+      <c r="AF31">
+        <v>2075</v>
+      </c>
+      <c r="AG31">
+        <v>1372</v>
+      </c>
+      <c r="AH31">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>6</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>4</v>
-      </c>
-      <c r="Y31">
-        <v>145</v>
-      </c>
-      <c r="Z31">
-        <v>20</v>
-      </c>
-      <c r="AA31">
-        <v>58</v>
-      </c>
-      <c r="AB31">
-        <v>145</v>
-      </c>
-      <c r="AC31">
-        <v>108</v>
-      </c>
-      <c r="AD31">
-        <v>2075</v>
-      </c>
-      <c r="AE31">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43880</v>
       </c>
@@ -8143,48 +8398,58 @@
         <v>26</v>
       </c>
       <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
         <f t="shared" si="0"/>
         <v>395</v>
       </c>
-      <c r="T32">
+      <c r="U32">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>4</v>
+      </c>
+      <c r="AA32">
+        <v>153</v>
+      </c>
+      <c r="AB32">
+        <v>19</v>
+      </c>
+      <c r="AC32">
+        <v>25</v>
+      </c>
+      <c r="AD32">
+        <v>125</v>
+      </c>
+      <c r="AE32">
+        <v>16</v>
+      </c>
+      <c r="AF32">
+        <v>2091</v>
+      </c>
+      <c r="AG32">
+        <v>1419</v>
+      </c>
+      <c r="AH32">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>2</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>4</v>
-      </c>
-      <c r="Y32">
-        <v>153</v>
-      </c>
-      <c r="Z32">
-        <v>19</v>
-      </c>
-      <c r="AA32">
-        <v>25</v>
-      </c>
-      <c r="AB32">
-        <v>125</v>
-      </c>
-      <c r="AC32">
-        <v>16</v>
-      </c>
-      <c r="AD32">
-        <v>2091</v>
-      </c>
-      <c r="AE32">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43881</v>
       </c>
@@ -8240,48 +8505,58 @@
         <v>26</v>
       </c>
       <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
         <f t="shared" si="0"/>
         <v>396</v>
       </c>
-      <c r="T33">
+      <c r="U33">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V33">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>1</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>169</v>
+      </c>
+      <c r="AB33">
+        <v>19</v>
+      </c>
+      <c r="AC33">
+        <v>41</v>
+      </c>
+      <c r="AD33">
+        <v>114</v>
+      </c>
+      <c r="AE33">
+        <v>4</v>
+      </c>
+      <c r="AF33">
+        <v>2095</v>
+      </c>
+      <c r="AG33">
+        <v>1488</v>
+      </c>
+      <c r="AH33">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>4</v>
-      </c>
-      <c r="Y33">
-        <v>169</v>
-      </c>
-      <c r="Z33">
-        <v>19</v>
-      </c>
-      <c r="AA33">
-        <v>41</v>
-      </c>
-      <c r="AB33">
-        <v>114</v>
-      </c>
-      <c r="AC33">
-        <v>4</v>
-      </c>
-      <c r="AD33">
-        <v>2095</v>
-      </c>
-      <c r="AE33">
-        <v>1488</v>
-      </c>
-    </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43882</v>
       </c>
@@ -8337,48 +8612,58 @@
         <v>26</v>
       </c>
       <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="T34">
+      <c r="U34">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>2</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>4</v>
+      </c>
+      <c r="AA34">
+        <v>178</v>
+      </c>
+      <c r="AB34">
+        <v>19</v>
+      </c>
+      <c r="AC34">
+        <v>26</v>
+      </c>
+      <c r="AD34">
+        <v>104</v>
+      </c>
+      <c r="AE34">
+        <v>338</v>
+      </c>
+      <c r="AF34">
+        <v>2443</v>
+      </c>
+      <c r="AG34">
+        <v>1608</v>
+      </c>
+      <c r="AH34">
         <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>2</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>4</v>
-      </c>
-      <c r="Y34">
-        <v>178</v>
-      </c>
-      <c r="Z34">
-        <v>19</v>
-      </c>
-      <c r="AA34">
-        <v>26</v>
-      </c>
-      <c r="AB34">
-        <v>104</v>
-      </c>
-      <c r="AC34">
-        <v>338</v>
-      </c>
-      <c r="AD34">
-        <v>2443</v>
-      </c>
-      <c r="AE34">
-        <v>1608</v>
-      </c>
-    </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43883</v>
       </c>
@@ -8434,48 +8719,58 @@
         <v>26</v>
       </c>
       <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="T35">
+      <c r="U35">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>0</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>4</v>
+      </c>
+      <c r="AA35">
+        <v>189</v>
+      </c>
+      <c r="AB35">
+        <v>17</v>
+      </c>
+      <c r="AC35">
+        <v>35</v>
+      </c>
+      <c r="AD35">
+        <v>100</v>
+      </c>
+      <c r="AE35">
+        <v>19</v>
+      </c>
+      <c r="AF35">
+        <v>2452</v>
+      </c>
+      <c r="AG35">
+        <v>1655</v>
+      </c>
+      <c r="AH35">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>0</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>4</v>
-      </c>
-      <c r="Y35">
-        <v>189</v>
-      </c>
-      <c r="Z35">
-        <v>17</v>
-      </c>
-      <c r="AA35">
-        <v>35</v>
-      </c>
-      <c r="AB35">
-        <v>100</v>
-      </c>
-      <c r="AC35">
-        <v>19</v>
-      </c>
-      <c r="AD35">
-        <v>2452</v>
-      </c>
-      <c r="AE35">
-        <v>1655</v>
-      </c>
-    </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43884</v>
       </c>
@@ -8531,48 +8826,58 @@
         <v>26</v>
       </c>
       <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="0"/>
         <v>399</v>
       </c>
-      <c r="T36">
+      <c r="U36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V36">
+        <v>0</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>4</v>
+      </c>
+      <c r="AA36">
+        <v>198</v>
+      </c>
+      <c r="AB36">
+        <v>16</v>
+      </c>
+      <c r="AC36">
+        <v>30</v>
+      </c>
+      <c r="AD36">
+        <v>94</v>
+      </c>
+      <c r="AE36">
+        <v>32</v>
+      </c>
+      <c r="AF36">
+        <v>2484</v>
+      </c>
+      <c r="AG36">
+        <v>1694</v>
+      </c>
+      <c r="AH36">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>4</v>
-      </c>
-      <c r="Y36">
-        <v>198</v>
-      </c>
-      <c r="Z36">
-        <v>16</v>
-      </c>
-      <c r="AA36">
-        <v>30</v>
-      </c>
-      <c r="AB36">
-        <v>94</v>
-      </c>
-      <c r="AC36">
-        <v>32</v>
-      </c>
-      <c r="AD36">
-        <v>2484</v>
-      </c>
-      <c r="AE36">
-        <v>1694</v>
-      </c>
-    </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43885</v>
       </c>
@@ -8628,45 +8933,992 @@
         <v>25</v>
       </c>
       <c r="S37">
+        <v>0</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="T37">
+      <c r="U37">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>4</v>
+      </c>
+      <c r="AA37">
+        <v>215</v>
+      </c>
+      <c r="AB37">
+        <v>13</v>
+      </c>
+      <c r="AC37">
+        <v>18</v>
+      </c>
+      <c r="AD37">
+        <v>73</v>
+      </c>
+      <c r="AE37">
+        <v>3</v>
+      </c>
+      <c r="AF37">
+        <v>2487</v>
+      </c>
+      <c r="AG37">
+        <v>1748</v>
+      </c>
+      <c r="AH37">
         <f t="shared" si="3"/>
+        <v>739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43886</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>53</v>
+      </c>
+      <c r="D38">
+        <v>61</v>
+      </c>
+      <c r="E38">
+        <v>62</v>
+      </c>
+      <c r="F38">
+        <v>41</v>
+      </c>
+      <c r="G38">
+        <v>14</v>
+      </c>
+      <c r="H38">
+        <v>3</v>
+      </c>
+      <c r="I38">
+        <v>16</v>
+      </c>
+      <c r="J38">
+        <v>19</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>29</v>
+      </c>
+      <c r="M38">
+        <v>39</v>
+      </c>
+      <c r="N38">
+        <v>7</v>
+      </c>
+      <c r="O38">
+        <v>7</v>
+      </c>
+      <c r="P38">
         <v>1</v>
       </c>
-      <c r="U37">
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>25</v>
+      </c>
+      <c r="S38">
+        <v>0</v>
+      </c>
+      <c r="T38">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="U38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V38">
+        <v>0</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>4</v>
+      </c>
+      <c r="AA38">
+        <v>235</v>
+      </c>
+      <c r="AB38">
+        <v>12</v>
+      </c>
+      <c r="AC38">
+        <v>21</v>
+      </c>
+      <c r="AD38">
+        <v>57</v>
+      </c>
+      <c r="AE38">
+        <v>87</v>
+      </c>
+      <c r="AF38">
+        <v>2574</v>
+      </c>
+      <c r="AG38">
+        <v>1784</v>
+      </c>
+      <c r="AH38">
+        <f t="shared" si="3"/>
+        <v>790</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43887</v>
+      </c>
+      <c r="B39">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>53</v>
+      </c>
+      <c r="D39">
+        <v>70</v>
+      </c>
+      <c r="E39">
+        <v>62</v>
+      </c>
+      <c r="F39">
+        <v>42</v>
+      </c>
+      <c r="G39">
+        <v>14</v>
+      </c>
+      <c r="H39">
+        <v>3</v>
+      </c>
+      <c r="I39">
+        <v>16</v>
+      </c>
+      <c r="J39">
+        <v>19</v>
+      </c>
+      <c r="K39">
+        <v>10</v>
+      </c>
+      <c r="L39">
+        <v>29</v>
+      </c>
+      <c r="M39">
+        <v>39</v>
+      </c>
+      <c r="N39">
+        <v>7</v>
+      </c>
+      <c r="O39">
+        <v>7</v>
+      </c>
+      <c r="P39">
         <v>1</v>
       </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>25</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="U39">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="V39">
+        <v>0</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>10</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>5</v>
+      </c>
+      <c r="AA39">
+        <v>248</v>
+      </c>
+      <c r="AC39">
+        <v>10</v>
+      </c>
+      <c r="AD39">
+        <v>46</v>
+      </c>
+      <c r="AE39">
+        <v>84</v>
+      </c>
+      <c r="AF39">
+        <v>2658</v>
+      </c>
+      <c r="AG39">
+        <v>1852</v>
+      </c>
+      <c r="AH39">
+        <f t="shared" si="3"/>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43888</v>
+      </c>
+      <c r="B40">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>70</v>
+      </c>
+      <c r="E40">
+        <v>62</v>
+      </c>
+      <c r="F40">
+        <v>42</v>
+      </c>
+      <c r="G40">
+        <v>14</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40">
+        <v>16</v>
+      </c>
+      <c r="J40">
+        <v>19</v>
+      </c>
+      <c r="K40">
+        <v>10</v>
+      </c>
+      <c r="L40">
+        <v>29</v>
+      </c>
+      <c r="M40">
+        <v>39</v>
+      </c>
+      <c r="N40">
+        <v>7</v>
+      </c>
+      <c r="O40">
+        <v>7</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>25</v>
+      </c>
+      <c r="S40">
+        <v>0</v>
+      </c>
+      <c r="T40">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="U40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>7</v>
+      </c>
+      <c r="AA40">
+        <v>257</v>
+      </c>
+      <c r="AC40">
+        <v>12</v>
+      </c>
+      <c r="AD40">
+        <v>38</v>
+      </c>
+      <c r="AE40">
+        <v>81</v>
+      </c>
+      <c r="AF40">
+        <v>2667</v>
+      </c>
+      <c r="AG40">
+        <f>AF40-AH40</f>
+        <v>2073</v>
+      </c>
+      <c r="AH40">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43889</v>
+      </c>
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>53</v>
+      </c>
+      <c r="D41">
+        <v>71</v>
+      </c>
+      <c r="E41">
+        <v>62</v>
+      </c>
+      <c r="F41">
+        <v>42</v>
+      </c>
+      <c r="G41">
+        <v>14</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
+      </c>
+      <c r="I41">
+        <v>16</v>
+      </c>
+      <c r="J41">
+        <v>19</v>
+      </c>
+      <c r="K41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>29</v>
+      </c>
+      <c r="M41">
+        <v>39</v>
+      </c>
+      <c r="N41">
+        <v>7</v>
+      </c>
+      <c r="O41">
+        <v>7</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>25</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <f t="shared" si="0"/>
+        <v>411</v>
+      </c>
+      <c r="U41">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>1</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>8</v>
+      </c>
+      <c r="AA41">
+        <v>271</v>
+      </c>
+      <c r="AC41">
+        <v>9</v>
+      </c>
+      <c r="AD41">
+        <v>33</v>
+      </c>
+      <c r="AE41">
+        <v>16</v>
+      </c>
+      <c r="AF41">
+        <v>2683</v>
+      </c>
+      <c r="AG41">
+        <f>AF41-AH41</f>
+        <v>2175</v>
+      </c>
+      <c r="AH41">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43890</v>
+      </c>
+      <c r="B42">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>53</v>
+      </c>
+      <c r="D42">
+        <v>71</v>
+      </c>
+      <c r="E42">
+        <v>62</v>
+      </c>
+      <c r="F42">
+        <v>42</v>
+      </c>
+      <c r="G42">
+        <v>14</v>
+      </c>
+      <c r="H42">
+        <v>3</v>
+      </c>
+      <c r="I42">
+        <v>16</v>
+      </c>
+      <c r="J42">
+        <v>19</v>
+      </c>
+      <c r="K42">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>29</v>
+      </c>
+      <c r="M42">
+        <v>39</v>
+      </c>
+      <c r="N42">
+        <v>7</v>
+      </c>
+      <c r="O42">
+        <v>7</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>25</v>
+      </c>
+      <c r="S42">
+        <v>2</v>
+      </c>
+      <c r="T42">
+        <f t="shared" si="0"/>
+        <v>413</v>
+      </c>
+      <c r="U42">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
+      </c>
+      <c r="W42">
+        <v>2</v>
+      </c>
+      <c r="X42">
+        <v>0</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>8</v>
+      </c>
+      <c r="AA42">
+        <v>276</v>
+      </c>
+      <c r="AC42">
+        <v>18</v>
+      </c>
+      <c r="AD42">
+        <v>39</v>
+      </c>
+      <c r="AE42">
+        <v>7</v>
+      </c>
+      <c r="AF42">
+        <v>2690</v>
+      </c>
+      <c r="AG42">
+        <f>AF42-AH42</f>
+        <v>2279</v>
+      </c>
+      <c r="AH42">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B43">
+        <v>13</v>
+      </c>
+      <c r="C43">
+        <v>53</v>
+      </c>
+      <c r="D43">
+        <v>71</v>
+      </c>
+      <c r="E43">
+        <v>63</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <v>14</v>
+      </c>
+      <c r="H43">
+        <v>3</v>
+      </c>
+      <c r="I43">
+        <v>16</v>
+      </c>
+      <c r="J43">
+        <v>19</v>
+      </c>
+      <c r="K43">
+        <v>10</v>
+      </c>
+      <c r="L43">
+        <v>29</v>
+      </c>
+      <c r="M43">
+        <v>39</v>
+      </c>
+      <c r="N43">
+        <v>7</v>
+      </c>
+      <c r="O43">
+        <v>7</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>25</v>
+      </c>
+      <c r="S43">
+        <v>2</v>
+      </c>
+      <c r="T43">
+        <f t="shared" ref="T43:T45" si="5">SUM(B43:S43)</f>
+        <v>414</v>
+      </c>
+      <c r="U43">
+        <f t="shared" ref="U43:U44" si="6">T43-T42</f>
+        <v>1</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>1</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>8</v>
+      </c>
+      <c r="AA43">
+        <v>282</v>
+      </c>
+      <c r="AC43">
+        <v>12</v>
+      </c>
+      <c r="AD43">
+        <v>42</v>
+      </c>
+      <c r="AE43">
+        <v>38</v>
+      </c>
+      <c r="AF43">
+        <v>2728</v>
+      </c>
+      <c r="AG43">
+        <f>AF43-AH43</f>
+        <v>2315</v>
+      </c>
+      <c r="AH43">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B44">
+        <v>13</v>
+      </c>
+      <c r="C44">
+        <v>53</v>
+      </c>
+      <c r="D44">
+        <v>71</v>
+      </c>
+      <c r="E44">
+        <v>63</v>
+      </c>
+      <c r="F44">
+        <v>42</v>
+      </c>
+      <c r="G44">
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <v>3</v>
+      </c>
+      <c r="I44">
+        <v>16</v>
+      </c>
+      <c r="J44">
+        <v>19</v>
+      </c>
+      <c r="K44">
+        <v>10</v>
+      </c>
+      <c r="L44">
+        <v>29</v>
+      </c>
+      <c r="M44">
+        <v>39</v>
+      </c>
+      <c r="N44">
+        <v>7</v>
+      </c>
+      <c r="O44">
+        <v>7</v>
+      </c>
+      <c r="P44">
+        <v>1</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>25</v>
+      </c>
+      <c r="S44">
+        <v>2</v>
+      </c>
+      <c r="T44">
+        <f>SUM(B44:S44)</f>
+        <v>414</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V44">
+        <v>0</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>8</v>
+      </c>
+      <c r="AA44">
+        <v>288</v>
+      </c>
+      <c r="AC44">
+        <v>14</v>
+      </c>
+      <c r="AD44">
+        <v>37</v>
+      </c>
+      <c r="AE44">
+        <v>7</v>
+      </c>
+      <c r="AF44">
+        <v>2735</v>
+      </c>
+      <c r="AG44">
+        <f>AF44-AH44</f>
+        <v>2462</v>
+      </c>
+      <c r="AH44">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43893</v>
+      </c>
+      <c r="B45">
+        <v>13</v>
+      </c>
+      <c r="C45">
+        <v>53</v>
+      </c>
+      <c r="D45">
+        <v>71</v>
+      </c>
+      <c r="E45">
+        <v>63</v>
+      </c>
+      <c r="F45">
+        <v>43</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="H45">
+        <v>3</v>
+      </c>
+      <c r="I45">
+        <v>16</v>
+      </c>
+      <c r="J45">
+        <v>19</v>
+      </c>
+      <c r="K45">
+        <v>10</v>
+      </c>
+      <c r="L45">
+        <v>29</v>
+      </c>
+      <c r="M45">
+        <v>39</v>
+      </c>
+      <c r="N45">
+        <v>7</v>
+      </c>
+      <c r="O45">
+        <v>7</v>
+      </c>
+      <c r="P45">
+        <v>1</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>25</v>
+      </c>
+      <c r="S45">
         <v>4</v>
       </c>
-      <c r="Y37">
-        <v>215</v>
-      </c>
-      <c r="Z37">
+      <c r="T45">
+        <f>SUM(B45:S45)</f>
+        <v>417</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+      <c r="V45">
+        <v>0</v>
+      </c>
+      <c r="W45">
+        <v>2</v>
+      </c>
+      <c r="X45">
+        <v>0</v>
+      </c>
+      <c r="Y45">
+        <v>1</v>
+      </c>
+      <c r="Z45">
+        <v>8</v>
+      </c>
+      <c r="AA45">
+        <v>294</v>
+      </c>
+      <c r="AC45">
+        <v>11</v>
+      </c>
+      <c r="AD45">
+        <v>38</v>
+      </c>
+      <c r="AE45">
+        <v>61</v>
+      </c>
+      <c r="AF45">
+        <v>2796</v>
+      </c>
+      <c r="AG45">
+        <f>AF45-AH45</f>
+        <v>2487</v>
+      </c>
+      <c r="AH45">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43894</v>
+      </c>
+      <c r="B46">
         <v>13</v>
       </c>
-      <c r="AA37">
-        <v>18</v>
-      </c>
-      <c r="AB37">
-        <v>73</v>
-      </c>
-      <c r="AC37">
+      <c r="C46">
+        <v>53</v>
+      </c>
+      <c r="D46">
+        <v>72</v>
+      </c>
+      <c r="E46">
+        <v>63</v>
+      </c>
+      <c r="F46">
+        <v>43</v>
+      </c>
+      <c r="G46">
+        <v>14</v>
+      </c>
+      <c r="H46">
         <v>3</v>
       </c>
-      <c r="AD37">
-        <v>2487</v>
-      </c>
-      <c r="AE37">
-        <v>1748</v>
+      <c r="I46">
+        <v>16</v>
+      </c>
+      <c r="J46">
+        <v>19</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>29</v>
+      </c>
+      <c r="M46">
+        <v>39</v>
+      </c>
+      <c r="N46">
+        <v>7</v>
+      </c>
+      <c r="O46">
+        <v>7</v>
+      </c>
+      <c r="P46">
+        <v>1</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>25</v>
+      </c>
+      <c r="S46">
+        <v>4</v>
+      </c>
+      <c r="T46">
+        <f>SUM(B46:S46)</f>
+        <v>418</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+      <c r="V46">
+        <v>0</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>1</v>
+      </c>
+      <c r="Y46">
+        <v>0</v>
+      </c>
+      <c r="Z46">
+        <v>8</v>
+      </c>
+      <c r="AA46">
+        <v>297</v>
+      </c>
+      <c r="AC46">
+        <v>10</v>
+      </c>
+      <c r="AD46">
+        <v>34</v>
+      </c>
+      <c r="AE46">
+        <v>71</v>
+      </c>
+      <c r="AF46">
+        <v>2867</v>
+      </c>
+      <c r="AG46">
+        <f>AF46-AH46</f>
+        <v>2503</v>
+      </c>
+      <c r="AH46">
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -8677,9 +9929,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
-  <dimension ref="A1:D98"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F108" sqref="F108"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -10058,6 +11312,90 @@
         <v>138</v>
       </c>
     </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>43887</v>
+      </c>
+      <c r="C99" t="s">
+        <v>46</v>
+      </c>
+      <c r="D99" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>43887</v>
+      </c>
+      <c r="C100" t="s">
+        <v>69</v>
+      </c>
+      <c r="D100" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>43889</v>
+      </c>
+      <c r="C101" t="s">
+        <v>46</v>
+      </c>
+      <c r="D101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43891</v>
+      </c>
+      <c r="C102" t="s">
+        <v>52</v>
+      </c>
+      <c r="D102" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43893</v>
+      </c>
+      <c r="C103" t="s">
+        <v>69</v>
+      </c>
+      <c r="D103" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43895</v>
+      </c>
+      <c r="C104" t="s">
+        <v>46</v>
+      </c>
+      <c r="D104" t="s">
+        <v>138</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1334" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4B17C988-A7CF-4042-B7DA-98FE25901D3E}"/>
+  <xr:revisionPtr revIDLastSave="1416" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9989D66E-311B-43F1-A460-C2B85834249E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
@@ -139,9 +139,6 @@
     <t>Outside</t>
   </si>
   <si>
-    <t>No_Contact</t>
-  </si>
-  <si>
     <t>Total_Death</t>
   </si>
   <si>
@@ -470,6 +467,9 @@
   </si>
   <si>
     <t>东铁匠营街道南三环中路65号院</t>
+  </si>
+  <si>
+    <t>Unknown_Contact</t>
   </si>
 </sst>
 </file>
@@ -5416,13 +5416,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:AH46"/>
+  <dimension ref="A1:AH51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AH51" sqref="AH51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5487,7 +5487,7 @@
         <v>33</v>
       </c>
       <c r="S1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="T1" t="s">
         <v>11</v>
@@ -5499,40 +5499,40 @@
         <v>15</v>
       </c>
       <c r="W1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="X1" t="s">
         <v>14</v>
       </c>
       <c r="Y1" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>35</v>
       </c>
-      <c r="AA1" t="s">
-        <v>36</v>
-      </c>
       <c r="AB1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AE1" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>131</v>
       </c>
-      <c r="AG1" t="s">
-        <v>132</v>
-      </c>
       <c r="AH1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
@@ -9292,7 +9292,7 @@
         <v>2667</v>
       </c>
       <c r="AG40">
-        <f>AF40-AH40</f>
+        <f t="shared" ref="AG40:AG51" si="5">AF40-AH40</f>
         <v>2073</v>
       </c>
       <c r="AH40">
@@ -9396,7 +9396,7 @@
         <v>2683</v>
       </c>
       <c r="AG41">
-        <f>AF41-AH41</f>
+        <f t="shared" si="5"/>
         <v>2175</v>
       </c>
       <c r="AH41">
@@ -9500,7 +9500,7 @@
         <v>2690</v>
       </c>
       <c r="AG42">
-        <f>AF42-AH42</f>
+        <f t="shared" si="5"/>
         <v>2279</v>
       </c>
       <c r="AH42">
@@ -9566,11 +9566,11 @@
         <v>2</v>
       </c>
       <c r="T43">
-        <f t="shared" ref="T43:T45" si="5">SUM(B43:S43)</f>
+        <f t="shared" ref="T43" si="6">SUM(B43:S43)</f>
         <v>414</v>
       </c>
       <c r="U43">
-        <f t="shared" ref="U43:U44" si="6">T43-T42</f>
+        <f t="shared" ref="U43:U50" si="7">T43-T42</f>
         <v>1</v>
       </c>
       <c r="V43">
@@ -9604,7 +9604,7 @@
         <v>2728</v>
       </c>
       <c r="AG43">
-        <f>AF43-AH43</f>
+        <f t="shared" si="5"/>
         <v>2315</v>
       </c>
       <c r="AH43">
@@ -9674,7 +9674,7 @@
         <v>414</v>
       </c>
       <c r="U44">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V44">
@@ -9708,7 +9708,7 @@
         <v>2735</v>
       </c>
       <c r="AG44">
-        <f>AF44-AH44</f>
+        <f t="shared" si="5"/>
         <v>2462</v>
       </c>
       <c r="AH44">
@@ -9778,7 +9778,8 @@
         <v>417</v>
       </c>
       <c r="U45">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>3</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -9811,7 +9812,7 @@
         <v>2796</v>
       </c>
       <c r="AG45">
-        <f>AF45-AH45</f>
+        <f t="shared" si="5"/>
         <v>2487</v>
       </c>
       <c r="AH45">
@@ -9881,7 +9882,8 @@
         <v>418</v>
       </c>
       <c r="U46">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -9914,11 +9916,530 @@
         <v>2867</v>
       </c>
       <c r="AG46">
-        <f>AF46-AH46</f>
+        <f t="shared" si="5"/>
         <v>2503</v>
       </c>
       <c r="AH46">
         <v>364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43895</v>
+      </c>
+      <c r="B47">
+        <v>13</v>
+      </c>
+      <c r="C47">
+        <v>53</v>
+      </c>
+      <c r="D47">
+        <v>72</v>
+      </c>
+      <c r="E47">
+        <v>63</v>
+      </c>
+      <c r="F47">
+        <v>43</v>
+      </c>
+      <c r="G47">
+        <v>14</v>
+      </c>
+      <c r="H47">
+        <v>3</v>
+      </c>
+      <c r="I47">
+        <v>16</v>
+      </c>
+      <c r="J47">
+        <v>19</v>
+      </c>
+      <c r="K47">
+        <v>10</v>
+      </c>
+      <c r="L47">
+        <v>29</v>
+      </c>
+      <c r="M47">
+        <v>39</v>
+      </c>
+      <c r="N47">
+        <v>7</v>
+      </c>
+      <c r="O47">
+        <v>7</v>
+      </c>
+      <c r="P47">
+        <v>1</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>25</v>
+      </c>
+      <c r="S47">
+        <v>8</v>
+      </c>
+      <c r="T47">
+        <f>SUM(B47:S47)</f>
+        <v>422</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V47">
+        <v>0</v>
+      </c>
+      <c r="W47">
+        <v>4</v>
+      </c>
+      <c r="X47">
+        <v>0</v>
+      </c>
+      <c r="Y47">
+        <v>0</v>
+      </c>
+      <c r="Z47">
+        <v>8</v>
+      </c>
+      <c r="AA47">
+        <v>298</v>
+      </c>
+      <c r="AC47">
+        <v>3</v>
+      </c>
+      <c r="AD47">
+        <v>29</v>
+      </c>
+      <c r="AE47">
+        <v>7</v>
+      </c>
+      <c r="AF47">
+        <v>2874</v>
+      </c>
+      <c r="AG47">
+        <f t="shared" si="5"/>
+        <v>2506</v>
+      </c>
+      <c r="AH47">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>43896</v>
+      </c>
+      <c r="B48">
+        <v>14</v>
+      </c>
+      <c r="C48">
+        <v>53</v>
+      </c>
+      <c r="D48">
+        <v>72</v>
+      </c>
+      <c r="E48">
+        <v>63</v>
+      </c>
+      <c r="F48">
+        <v>43</v>
+      </c>
+      <c r="G48">
+        <v>14</v>
+      </c>
+      <c r="H48">
+        <v>3</v>
+      </c>
+      <c r="I48">
+        <v>16</v>
+      </c>
+      <c r="J48">
+        <v>19</v>
+      </c>
+      <c r="K48">
+        <v>10</v>
+      </c>
+      <c r="L48">
+        <v>29</v>
+      </c>
+      <c r="M48">
+        <v>39</v>
+      </c>
+      <c r="N48">
+        <v>7</v>
+      </c>
+      <c r="O48">
+        <v>7</v>
+      </c>
+      <c r="P48">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>25</v>
+      </c>
+      <c r="S48">
+        <v>11</v>
+      </c>
+      <c r="T48">
+        <f>SUM(B48:S48)</f>
+        <v>426</v>
+      </c>
+      <c r="U48">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="V48">
+        <v>0</v>
+      </c>
+      <c r="W48">
+        <v>3</v>
+      </c>
+      <c r="X48">
+        <v>0</v>
+      </c>
+      <c r="Y48">
+        <v>1</v>
+      </c>
+      <c r="Z48">
+        <v>8</v>
+      </c>
+      <c r="AA48">
+        <v>303</v>
+      </c>
+      <c r="AC48">
+        <v>13</v>
+      </c>
+      <c r="AD48">
+        <v>35</v>
+      </c>
+      <c r="AE48">
+        <v>99</v>
+      </c>
+      <c r="AF48">
+        <v>3545</v>
+      </c>
+      <c r="AG48">
+        <f t="shared" si="5"/>
+        <v>3075</v>
+      </c>
+      <c r="AH48">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>43897</v>
+      </c>
+      <c r="B49">
+        <v>14</v>
+      </c>
+      <c r="C49">
+        <v>53</v>
+      </c>
+      <c r="D49">
+        <v>72</v>
+      </c>
+      <c r="E49">
+        <v>63</v>
+      </c>
+      <c r="F49">
+        <v>43</v>
+      </c>
+      <c r="G49">
+        <v>14</v>
+      </c>
+      <c r="H49">
+        <v>3</v>
+      </c>
+      <c r="I49">
+        <v>16</v>
+      </c>
+      <c r="J49">
+        <v>19</v>
+      </c>
+      <c r="K49">
+        <v>10</v>
+      </c>
+      <c r="L49">
+        <v>29</v>
+      </c>
+      <c r="M49">
+        <v>39</v>
+      </c>
+      <c r="N49">
+        <v>7</v>
+      </c>
+      <c r="O49">
+        <v>7</v>
+      </c>
+      <c r="P49">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>25</v>
+      </c>
+      <c r="S49">
+        <v>13</v>
+      </c>
+      <c r="T49">
+        <f>SUM(B49:S49)</f>
+        <v>428</v>
+      </c>
+      <c r="U49">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="V49">
+        <v>0</v>
+      </c>
+      <c r="W49">
+        <v>2</v>
+      </c>
+      <c r="X49">
+        <v>0</v>
+      </c>
+      <c r="Y49">
+        <v>0</v>
+      </c>
+      <c r="Z49">
+        <v>8</v>
+      </c>
+      <c r="AA49">
+        <v>308</v>
+      </c>
+      <c r="AC49">
+        <v>3</v>
+      </c>
+      <c r="AD49">
+        <v>27</v>
+      </c>
+      <c r="AE49">
+        <v>87</v>
+      </c>
+      <c r="AF49">
+        <v>3632</v>
+      </c>
+      <c r="AG49">
+        <f t="shared" si="5"/>
+        <v>3081</v>
+      </c>
+      <c r="AH49">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>43898</v>
+      </c>
+      <c r="B50">
+        <v>14</v>
+      </c>
+      <c r="C50">
+        <v>53</v>
+      </c>
+      <c r="D50">
+        <v>72</v>
+      </c>
+      <c r="E50">
+        <v>63</v>
+      </c>
+      <c r="F50">
+        <v>43</v>
+      </c>
+      <c r="G50">
+        <v>14</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>16</v>
+      </c>
+      <c r="J50">
+        <v>19</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+      <c r="L50">
+        <v>29</v>
+      </c>
+      <c r="M50">
+        <v>39</v>
+      </c>
+      <c r="N50">
+        <v>7</v>
+      </c>
+      <c r="O50">
+        <v>7</v>
+      </c>
+      <c r="P50">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>25</v>
+      </c>
+      <c r="S50">
+        <v>13</v>
+      </c>
+      <c r="T50">
+        <f>SUM(B50:S50)</f>
+        <v>428</v>
+      </c>
+      <c r="U50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V50">
+        <v>0</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="Y50">
+        <v>0</v>
+      </c>
+      <c r="Z50">
+        <v>8</v>
+      </c>
+      <c r="AA50">
+        <v>315</v>
+      </c>
+      <c r="AC50">
+        <v>8</v>
+      </c>
+      <c r="AD50">
+        <v>35</v>
+      </c>
+      <c r="AE50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>3632</v>
+      </c>
+      <c r="AG50">
+        <f t="shared" si="5"/>
+        <v>3131</v>
+      </c>
+      <c r="AH50">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>43899</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="C51">
+        <v>53</v>
+      </c>
+      <c r="D51">
+        <v>72</v>
+      </c>
+      <c r="E51">
+        <v>63</v>
+      </c>
+      <c r="F51">
+        <v>43</v>
+      </c>
+      <c r="G51">
+        <v>14</v>
+      </c>
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>16</v>
+      </c>
+      <c r="J51">
+        <v>19</v>
+      </c>
+      <c r="K51">
+        <v>10</v>
+      </c>
+      <c r="L51">
+        <v>29</v>
+      </c>
+      <c r="M51">
+        <v>39</v>
+      </c>
+      <c r="N51">
+        <v>7</v>
+      </c>
+      <c r="O51">
+        <v>7</v>
+      </c>
+      <c r="P51">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>25</v>
+      </c>
+      <c r="S51">
+        <v>14</v>
+      </c>
+      <c r="T51">
+        <f>SUM(B51:S51)</f>
+        <v>429</v>
+      </c>
+      <c r="U51">
+        <v>0</v>
+      </c>
+      <c r="V51">
+        <v>0</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>0</v>
+      </c>
+      <c r="Y51">
+        <v>0</v>
+      </c>
+      <c r="Z51">
+        <v>8</v>
+      </c>
+      <c r="AA51">
+        <v>320</v>
+      </c>
+      <c r="AC51">
+        <v>9</v>
+      </c>
+      <c r="AD51">
+        <v>36</v>
+      </c>
+      <c r="AE51">
+        <v>19</v>
+      </c>
+      <c r="AF51">
+        <v>3650</v>
+      </c>
+      <c r="AG51">
+        <f t="shared" si="5"/>
+        <v>3183</v>
+      </c>
+      <c r="AH51">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -9942,16 +10463,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>39</v>
-      </c>
-      <c r="D1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -9962,10 +10483,10 @@
         <v>43866</v>
       </c>
       <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" t="s">
         <v>41</v>
-      </c>
-      <c r="D2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -9976,10 +10497,10 @@
         <v>43866</v>
       </c>
       <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
         <v>43</v>
-      </c>
-      <c r="D3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -9990,10 +10511,10 @@
         <v>43866</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -10004,10 +10525,10 @@
         <v>43866</v>
       </c>
       <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" t="s">
         <v>46</v>
-      </c>
-      <c r="D5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -10018,10 +10539,10 @@
         <v>43866</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -10032,10 +10553,10 @@
         <v>43866</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -10046,10 +10567,10 @@
         <v>43866</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -10060,10 +10581,10 @@
         <v>43866</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -10074,10 +10595,10 @@
         <v>43866</v>
       </c>
       <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
         <v>52</v>
-      </c>
-      <c r="D10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -10088,10 +10609,10 @@
         <v>43866</v>
       </c>
       <c r="C11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -10102,10 +10623,10 @@
         <v>43866</v>
       </c>
       <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
         <v>55</v>
-      </c>
-      <c r="D12" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -10116,10 +10637,10 @@
         <v>43866</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -10130,10 +10651,10 @@
         <v>43866</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -10144,10 +10665,10 @@
         <v>43866</v>
       </c>
       <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
         <v>59</v>
-      </c>
-      <c r="D15" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -10158,10 +10679,10 @@
         <v>43866</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -10172,10 +10693,10 @@
         <v>43866</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -10186,10 +10707,10 @@
         <v>43866</v>
       </c>
       <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
         <v>63</v>
-      </c>
-      <c r="D18" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -10200,10 +10721,10 @@
         <v>43867</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -10214,10 +10735,10 @@
         <v>43867</v>
       </c>
       <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
         <v>43</v>
-      </c>
-      <c r="D20" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -10228,10 +10749,10 @@
         <v>43867</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -10242,10 +10763,10 @@
         <v>43867</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -10256,10 +10777,10 @@
         <v>43867</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -10270,10 +10791,10 @@
         <v>43867</v>
       </c>
       <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
         <v>69</v>
-      </c>
-      <c r="D24" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -10284,10 +10805,10 @@
         <v>43867</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -10298,10 +10819,10 @@
         <v>43867</v>
       </c>
       <c r="C26" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" t="s">
         <v>72</v>
-      </c>
-      <c r="D26" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -10312,10 +10833,10 @@
         <v>43867</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -10326,10 +10847,10 @@
         <v>43867</v>
       </c>
       <c r="C28" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" t="s">
         <v>75</v>
-      </c>
-      <c r="D28" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -10340,10 +10861,10 @@
         <v>43867</v>
       </c>
       <c r="C29" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" t="s">
         <v>77</v>
-      </c>
-      <c r="D29" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -10354,10 +10875,10 @@
         <v>43867</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -10368,10 +10889,10 @@
         <v>43867</v>
       </c>
       <c r="C31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -10382,10 +10903,10 @@
         <v>43867</v>
       </c>
       <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" t="s">
         <v>81</v>
-      </c>
-      <c r="D32" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -10396,10 +10917,10 @@
         <v>43868</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -10410,10 +10931,10 @@
         <v>43868</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -10424,10 +10945,10 @@
         <v>43868</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -10438,10 +10959,10 @@
         <v>43868</v>
       </c>
       <c r="C36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -10452,10 +10973,10 @@
         <v>43868</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -10466,10 +10987,10 @@
         <v>43868</v>
       </c>
       <c r="C38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -10480,10 +11001,10 @@
         <v>43868</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -10494,10 +11015,10 @@
         <v>43868</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -10508,10 +11029,10 @@
         <v>43868</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -10522,10 +11043,10 @@
         <v>43868</v>
       </c>
       <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
         <v>88</v>
-      </c>
-      <c r="D42" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -10536,10 +11057,10 @@
         <v>43869</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -10550,10 +11071,10 @@
         <v>43869</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -10564,10 +11085,10 @@
         <v>43869</v>
       </c>
       <c r="C45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -10578,10 +11099,10 @@
         <v>43869</v>
       </c>
       <c r="C46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -10592,10 +11113,10 @@
         <v>43869</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -10606,10 +11127,10 @@
         <v>43869</v>
       </c>
       <c r="C48" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -10620,10 +11141,10 @@
         <v>43869</v>
       </c>
       <c r="C49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -10634,10 +11155,10 @@
         <v>43870</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -10648,10 +11169,10 @@
         <v>43870</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -10662,10 +11183,10 @@
         <v>43870</v>
       </c>
       <c r="C52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -10676,10 +11197,10 @@
         <v>43871</v>
       </c>
       <c r="C53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -10690,10 +11211,10 @@
         <v>43871</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -10704,10 +11225,10 @@
         <v>43871</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -10718,10 +11239,10 @@
         <v>43871</v>
       </c>
       <c r="C56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -10732,10 +11253,10 @@
         <v>43872</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -10746,10 +11267,10 @@
         <v>43872</v>
       </c>
       <c r="C58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -10760,10 +11281,10 @@
         <v>43872</v>
       </c>
       <c r="C59" t="s">
+        <v>42</v>
+      </c>
+      <c r="D59" t="s">
         <v>43</v>
-      </c>
-      <c r="D59" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -10774,10 +11295,10 @@
         <v>43872</v>
       </c>
       <c r="C60" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -10788,10 +11309,10 @@
         <v>43872</v>
       </c>
       <c r="C61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -10802,10 +11323,10 @@
         <v>43872</v>
       </c>
       <c r="C62" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -10816,10 +11337,10 @@
         <v>43873</v>
       </c>
       <c r="C63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -10830,10 +11351,10 @@
         <v>43873</v>
       </c>
       <c r="C64" t="s">
+        <v>42</v>
+      </c>
+      <c r="D64" t="s">
         <v>43</v>
-      </c>
-      <c r="D64" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -10844,10 +11365,10 @@
         <v>43873</v>
       </c>
       <c r="C65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -10858,10 +11379,10 @@
         <v>43873</v>
       </c>
       <c r="C66" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D66" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -10872,10 +11393,10 @@
         <v>43873</v>
       </c>
       <c r="C67" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D67" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -10886,10 +11407,10 @@
         <v>43873</v>
       </c>
       <c r="C68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -10900,10 +11421,10 @@
         <v>43873</v>
       </c>
       <c r="C69" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -10914,10 +11435,10 @@
         <v>43873</v>
       </c>
       <c r="C70" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -10928,10 +11449,10 @@
         <v>43874</v>
       </c>
       <c r="C71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -10942,10 +11463,10 @@
         <v>43874</v>
       </c>
       <c r="C72" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -10956,10 +11477,10 @@
         <v>43874</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D73" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -10970,10 +11491,10 @@
         <v>43874</v>
       </c>
       <c r="C74" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D74" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -10984,10 +11505,10 @@
         <v>43875</v>
       </c>
       <c r="C75" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -10998,10 +11519,10 @@
         <v>43875</v>
       </c>
       <c r="C76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D76" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -11012,10 +11533,10 @@
         <v>43875</v>
       </c>
       <c r="C77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -11026,10 +11547,10 @@
         <v>43876</v>
       </c>
       <c r="C78" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -11040,10 +11561,10 @@
         <v>43876</v>
       </c>
       <c r="C79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -11054,10 +11575,10 @@
         <v>43876</v>
       </c>
       <c r="C80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -11068,10 +11589,10 @@
         <v>43876</v>
       </c>
       <c r="C81" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -11082,10 +11603,10 @@
         <v>43877</v>
       </c>
       <c r="C82" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D82" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -11096,10 +11617,10 @@
         <v>43878</v>
       </c>
       <c r="C83" t="s">
+        <v>42</v>
+      </c>
+      <c r="D83" t="s">
         <v>43</v>
-      </c>
-      <c r="D83" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -11110,10 +11631,10 @@
         <v>43878</v>
       </c>
       <c r="C84" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -11124,10 +11645,10 @@
         <v>43878</v>
       </c>
       <c r="C85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -11138,10 +11659,10 @@
         <v>43878</v>
       </c>
       <c r="C86" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D86" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -11152,10 +11673,10 @@
         <v>43878</v>
       </c>
       <c r="C87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -11166,10 +11687,10 @@
         <v>43878</v>
       </c>
       <c r="C88" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -11180,10 +11701,10 @@
         <v>43879</v>
       </c>
       <c r="C89" t="s">
+        <v>42</v>
+      </c>
+      <c r="D89" t="s">
         <v>43</v>
-      </c>
-      <c r="D89" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -11194,10 +11715,10 @@
         <v>43879</v>
       </c>
       <c r="C90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -11208,10 +11729,10 @@
         <v>43879</v>
       </c>
       <c r="C91" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -11222,10 +11743,10 @@
         <v>43879</v>
       </c>
       <c r="C92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -11236,10 +11757,10 @@
         <v>43880</v>
       </c>
       <c r="C93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D93" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -11250,10 +11771,10 @@
         <v>43880</v>
       </c>
       <c r="C94" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D94" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -11264,10 +11785,10 @@
         <v>43881</v>
       </c>
       <c r="C95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -11278,10 +11799,10 @@
         <v>43882</v>
       </c>
       <c r="C96" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D96" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -11292,10 +11813,10 @@
         <v>43882</v>
       </c>
       <c r="C97" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D97" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -11306,10 +11827,10 @@
         <v>43885</v>
       </c>
       <c r="C98" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D98" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -11320,10 +11841,10 @@
         <v>43887</v>
       </c>
       <c r="C99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -11334,10 +11855,10 @@
         <v>43887</v>
       </c>
       <c r="C100" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D100" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -11348,10 +11869,10 @@
         <v>43889</v>
       </c>
       <c r="C101" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D101" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -11362,10 +11883,10 @@
         <v>43891</v>
       </c>
       <c r="C102" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D102" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -11376,10 +11897,10 @@
         <v>43893</v>
       </c>
       <c r="C103" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D103" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -11390,10 +11911,10 @@
         <v>43895</v>
       </c>
       <c r="C104" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D104" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
+++ b/Beijing_WJW/2019nCov_Beijing_new_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yihui\OneDrive - Decision Technology Ltd\Projects\Personal\2019-nCov\2019-nCov-data-collection\Beijing_WJW\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://decisiontechnology-my.sharepoint.com/personal/y_fan_dectech_co_uk/Documents/Projects/Personal/2019-nCov/2019-nCov-data-collection/Beijing_WJW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1416" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9989D66E-311B-43F1-A460-C2B85834249E}"/>
+  <xr:revisionPtr revIDLastSave="1484" documentId="13_ncr:1_{9732BA80-CBEF-42B3-99D0-93E7BA224772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8A821912-325E-43F2-8480-595207F09F33}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{60FC43FF-CECD-4F88-A05D-2949780FF6C4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="146">
   <si>
     <t>Age</t>
   </si>
@@ -470,6 +470,9 @@
   </si>
   <si>
     <t>Unknown_Contact</t>
+  </si>
+  <si>
+    <t>海淀街道苏州街3号大河庄苑</t>
   </si>
 </sst>
 </file>
@@ -5416,13 +5419,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{782B075F-614A-4B45-86AD-4029D032165F}">
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="M11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH51" sqref="AH51"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9292,7 +9295,7 @@
         <v>2667</v>
       </c>
       <c r="AG40">
-        <f t="shared" ref="AG40:AG51" si="5">AF40-AH40</f>
+        <f t="shared" ref="AG40:AG55" si="5">AF40-AH40</f>
         <v>2073</v>
       </c>
       <c r="AH40">
@@ -9570,7 +9573,7 @@
         <v>414</v>
       </c>
       <c r="U43">
-        <f t="shared" ref="U43:U50" si="7">T43-T42</f>
+        <f t="shared" ref="U43:U53" si="7">T43-T42</f>
         <v>1</v>
       </c>
       <c r="V43">
@@ -9670,7 +9673,7 @@
         <v>2</v>
       </c>
       <c r="T44">
-        <f>SUM(B44:S44)</f>
+        <f t="shared" ref="T44:T53" si="8">SUM(B44:S44)</f>
         <v>414</v>
       </c>
       <c r="U44">
@@ -9774,7 +9777,7 @@
         <v>4</v>
       </c>
       <c r="T45">
-        <f>SUM(B45:S45)</f>
+        <f t="shared" si="8"/>
         <v>417</v>
       </c>
       <c r="U45">
@@ -9878,7 +9881,7 @@
         <v>4</v>
       </c>
       <c r="T46">
-        <f>SUM(B46:S46)</f>
+        <f t="shared" si="8"/>
         <v>418</v>
       </c>
       <c r="U46">
@@ -9982,7 +9985,7 @@
         <v>8</v>
       </c>
       <c r="T47">
-        <f>SUM(B47:S47)</f>
+        <f t="shared" si="8"/>
         <v>422</v>
       </c>
       <c r="U47">
@@ -10086,7 +10089,7 @@
         <v>11</v>
       </c>
       <c r="T48">
-        <f>SUM(B48:S48)</f>
+        <f t="shared" si="8"/>
         <v>426</v>
       </c>
       <c r="U48">
@@ -10190,7 +10193,7 @@
         <v>13</v>
       </c>
       <c r="T49">
-        <f>SUM(B49:S49)</f>
+        <f t="shared" si="8"/>
         <v>428</v>
       </c>
       <c r="U49">
@@ -10294,7 +10297,7 @@
         <v>13</v>
       </c>
       <c r="T50">
-        <f>SUM(B50:S50)</f>
+        <f t="shared" si="8"/>
         <v>428</v>
       </c>
       <c r="U50">
@@ -10398,11 +10401,12 @@
         <v>14</v>
       </c>
       <c r="T51">
-        <f>SUM(B51:S51)</f>
+        <f t="shared" si="8"/>
         <v>429</v>
       </c>
       <c r="U51">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -10440,6 +10444,422 @@
       </c>
       <c r="AH51">
         <v>467</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>43900</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>53</v>
+      </c>
+      <c r="D52">
+        <v>72</v>
+      </c>
+      <c r="E52">
+        <v>63</v>
+      </c>
+      <c r="F52">
+        <v>43</v>
+      </c>
+      <c r="G52">
+        <v>14</v>
+      </c>
+      <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
+        <v>16</v>
+      </c>
+      <c r="J52">
+        <v>19</v>
+      </c>
+      <c r="K52">
+        <v>10</v>
+      </c>
+      <c r="L52">
+        <v>29</v>
+      </c>
+      <c r="M52">
+        <v>39</v>
+      </c>
+      <c r="N52">
+        <v>7</v>
+      </c>
+      <c r="O52">
+        <v>7</v>
+      </c>
+      <c r="P52">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>25</v>
+      </c>
+      <c r="S52">
+        <v>20</v>
+      </c>
+      <c r="T52">
+        <f t="shared" si="8"/>
+        <v>435</v>
+      </c>
+      <c r="U52">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="V52">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <v>6</v>
+      </c>
+      <c r="X52">
+        <v>0</v>
+      </c>
+      <c r="Y52">
+        <v>0</v>
+      </c>
+      <c r="Z52">
+        <v>8</v>
+      </c>
+      <c r="AA52">
+        <v>326</v>
+      </c>
+      <c r="AC52">
+        <v>2</v>
+      </c>
+      <c r="AD52">
+        <v>27</v>
+      </c>
+      <c r="AE52">
+        <v>44</v>
+      </c>
+      <c r="AF52">
+        <v>2694</v>
+      </c>
+      <c r="AG52">
+        <f t="shared" si="5"/>
+        <v>2260</v>
+      </c>
+      <c r="AH52">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B53">
+        <v>14</v>
+      </c>
+      <c r="C53">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>72</v>
+      </c>
+      <c r="E53">
+        <v>63</v>
+      </c>
+      <c r="F53">
+        <v>43</v>
+      </c>
+      <c r="G53">
+        <v>14</v>
+      </c>
+      <c r="H53">
+        <v>3</v>
+      </c>
+      <c r="I53">
+        <v>16</v>
+      </c>
+      <c r="J53">
+        <v>19</v>
+      </c>
+      <c r="K53">
+        <v>10</v>
+      </c>
+      <c r="L53">
+        <v>29</v>
+      </c>
+      <c r="M53">
+        <v>39</v>
+      </c>
+      <c r="N53">
+        <v>7</v>
+      </c>
+      <c r="O53">
+        <v>7</v>
+      </c>
+      <c r="P53">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>25</v>
+      </c>
+      <c r="S53">
+        <v>20</v>
+      </c>
+      <c r="T53">
+        <f t="shared" si="8"/>
+        <v>435</v>
+      </c>
+      <c r="U53">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V53">
+        <v>0</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>0</v>
+      </c>
+      <c r="Y53">
+        <v>0</v>
+      </c>
+      <c r="Z53">
+        <v>8</v>
+      </c>
+      <c r="AA53">
+        <v>334</v>
+      </c>
+      <c r="AC53">
+        <v>5</v>
+      </c>
+      <c r="AD53">
+        <v>29</v>
+      </c>
+      <c r="AE53">
+        <v>31</v>
+      </c>
+      <c r="AF53">
+        <v>3725</v>
+      </c>
+      <c r="AG53">
+        <f t="shared" si="5"/>
+        <v>3273</v>
+      </c>
+      <c r="AH53">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>43902</v>
+      </c>
+      <c r="B54">
+        <v>14</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <v>72</v>
+      </c>
+      <c r="E54">
+        <v>63</v>
+      </c>
+      <c r="F54">
+        <v>43</v>
+      </c>
+      <c r="G54">
+        <v>14</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>16</v>
+      </c>
+      <c r="J54">
+        <v>19</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>29</v>
+      </c>
+      <c r="M54">
+        <v>39</v>
+      </c>
+      <c r="N54">
+        <v>7</v>
+      </c>
+      <c r="O54">
+        <v>7</v>
+      </c>
+      <c r="P54">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>25</v>
+      </c>
+      <c r="S54">
+        <v>21</v>
+      </c>
+      <c r="T54">
+        <f t="shared" ref="T54:T55" si="9">SUM(B54:S54)</f>
+        <v>436</v>
+      </c>
+      <c r="U54">
+        <f t="shared" ref="U54:U55" si="10">T54-T53</f>
+        <v>1</v>
+      </c>
+      <c r="V54">
+        <v>0</v>
+      </c>
+      <c r="W54">
+        <v>1</v>
+      </c>
+      <c r="X54">
+        <v>0</v>
+      </c>
+      <c r="Y54">
+        <v>0</v>
+      </c>
+      <c r="Z54">
+        <v>8</v>
+      </c>
+      <c r="AA54">
+        <v>342</v>
+      </c>
+      <c r="AC54">
+        <v>9</v>
+      </c>
+      <c r="AD54">
+        <v>31</v>
+      </c>
+      <c r="AE54">
+        <v>14</v>
+      </c>
+      <c r="AF54">
+        <v>3739</v>
+      </c>
+      <c r="AG54">
+        <f t="shared" si="5"/>
+        <v>3277</v>
+      </c>
+      <c r="AH54">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>43903</v>
+      </c>
+      <c r="B55">
+        <v>14</v>
+      </c>
+      <c r="C55">
+        <v>53</v>
+      </c>
+      <c r="D55">
+        <v>72</v>
+      </c>
+      <c r="E55">
+        <v>63</v>
+      </c>
+      <c r="F55">
+        <v>43</v>
+      </c>
+      <c r="G55">
+        <v>14</v>
+      </c>
+      <c r="H55">
+        <v>3</v>
+      </c>
+      <c r="I55">
+        <v>16</v>
+      </c>
+      <c r="J55">
+        <v>19</v>
+      </c>
+      <c r="K55">
+        <v>10</v>
+      </c>
+      <c r="L55">
+        <v>29</v>
+      </c>
+      <c r="M55">
+        <v>39</v>
+      </c>
+      <c r="N55">
+        <v>7</v>
+      </c>
+      <c r="O55">
+        <v>7</v>
+      </c>
+      <c r="P55">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>25</v>
+      </c>
+      <c r="S55">
+        <v>21</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="9"/>
+        <v>436</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V55">
+        <v>0</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>0</v>
+      </c>
+      <c r="Y55">
+        <v>0</v>
+      </c>
+      <c r="Z55">
+        <v>8</v>
+      </c>
+      <c r="AA55">
+        <v>349</v>
+      </c>
+      <c r="AC55">
+        <v>1</v>
+      </c>
+      <c r="AD55">
+        <v>32</v>
+      </c>
+      <c r="AE55">
+        <v>14</v>
+      </c>
+      <c r="AF55">
+        <v>3785</v>
+      </c>
+      <c r="AG55">
+        <f t="shared" si="5"/>
+        <v>3319</v>
+      </c>
+      <c r="AH55">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -10450,10 +10870,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07B68E6-734E-4F7F-837E-CEF6513A65A4}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I100" sqref="I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11917,6 +12337,20 @@
         <v>137</v>
       </c>
     </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43902</v>
+      </c>
+      <c r="C105" t="s">
+        <v>51</v>
+      </c>
+      <c r="D105" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
